--- a/DATA__GEN3-V2-SONIC.xlsx
+++ b/DATA__GEN3-V2-SONIC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed Chah\Desktop\gen4-V1-deflection-tool\Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://artedrone.sharepoint.com/sites/SharepointArtedrone/Documents/12. Projets partagés externes/1-HEI/Ahmed-WorkSpace/Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DB0DC7-BC9B-47C7-B403-817D1A0E4308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F7DB0DC7-BC9B-47C7-B403-817D1A0E4308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8484731C-A0BB-4FF5-B553-BB9356D175F2}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="2175" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="20">
   <si>
     <t>Actuation Angle</t>
   </si>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>GEN3-V2-SONIC</t>
-  </si>
-  <si>
-    <t>90°</t>
-  </si>
-  <si>
-    <t>45°</t>
   </si>
   <si>
     <t>Line</t>
@@ -681,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E338FDE-009B-4A2A-8A7D-E8F87983CA18}">
   <dimension ref="A1:O625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A607" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C314" sqref="C314:D625"/>
+    <sheetView tabSelected="1" topLeftCell="A578" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B315" sqref="B315:B625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>1</v>
@@ -720,33 +714,33 @@
         <v>8</v>
       </c>
       <c r="I1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>16</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>12</v>
+      <c r="B2" s="13">
+        <v>90</v>
       </c>
       <c r="C2" s="14">
         <v>180</v>
@@ -767,15 +761,15 @@
         <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
+      <c r="B3" s="6">
+        <v>90</v>
       </c>
       <c r="C3" s="1">
         <v>180</v>
@@ -800,8 +794,8 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
+      <c r="B4" s="6">
+        <v>90</v>
       </c>
       <c r="C4" s="1">
         <v>180</v>
@@ -826,8 +820,8 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
+      <c r="B5" s="6">
+        <v>90</v>
       </c>
       <c r="C5" s="1">
         <v>180</v>
@@ -852,8 +846,8 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
+      <c r="B6" s="6">
+        <v>90</v>
       </c>
       <c r="C6" s="1">
         <v>180</v>
@@ -878,8 +872,8 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
+      <c r="B7" s="6">
+        <v>90</v>
       </c>
       <c r="C7" s="1">
         <v>180</v>
@@ -904,8 +898,8 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>12</v>
+      <c r="B8" s="6">
+        <v>90</v>
       </c>
       <c r="C8" s="1">
         <v>180</v>
@@ -930,8 +924,8 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
+      <c r="B9" s="6">
+        <v>90</v>
       </c>
       <c r="C9" s="1">
         <v>180</v>
@@ -956,8 +950,8 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
+      <c r="B10" s="6">
+        <v>90</v>
       </c>
       <c r="C10" s="1">
         <v>180</v>
@@ -982,8 +976,8 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
+      <c r="B11" s="6">
+        <v>90</v>
       </c>
       <c r="C11" s="1">
         <v>180</v>
@@ -1008,8 +1002,8 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>12</v>
+      <c r="B12" s="6">
+        <v>90</v>
       </c>
       <c r="C12" s="1">
         <v>180</v>
@@ -1034,8 +1028,8 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>12</v>
+      <c r="B13" s="6">
+        <v>90</v>
       </c>
       <c r="C13" s="1">
         <v>180</v>
@@ -1060,8 +1054,8 @@
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>12</v>
+      <c r="B14" s="6">
+        <v>90</v>
       </c>
       <c r="C14" s="1">
         <v>180</v>
@@ -1086,8 +1080,8 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>12</v>
+      <c r="B15" s="6">
+        <v>90</v>
       </c>
       <c r="C15" s="1">
         <v>180</v>
@@ -1112,8 +1106,8 @@
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>12</v>
+      <c r="B16" s="6">
+        <v>90</v>
       </c>
       <c r="C16" s="1">
         <v>180</v>
@@ -1138,8 +1132,8 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>12</v>
+      <c r="B17" s="6">
+        <v>90</v>
       </c>
       <c r="C17" s="1">
         <v>180</v>
@@ -1164,8 +1158,8 @@
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>12</v>
+      <c r="B18" s="6">
+        <v>90</v>
       </c>
       <c r="C18" s="1">
         <v>180</v>
@@ -1190,8 +1184,8 @@
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>12</v>
+      <c r="B19" s="6">
+        <v>90</v>
       </c>
       <c r="C19" s="1">
         <v>180</v>
@@ -1216,8 +1210,8 @@
       <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>12</v>
+      <c r="B20" s="6">
+        <v>90</v>
       </c>
       <c r="C20" s="1">
         <v>180</v>
@@ -1242,8 +1236,8 @@
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>12</v>
+      <c r="B21" s="6">
+        <v>90</v>
       </c>
       <c r="C21" s="1">
         <v>180</v>
@@ -1268,8 +1262,8 @@
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>12</v>
+      <c r="B22" s="6">
+        <v>90</v>
       </c>
       <c r="C22" s="1">
         <v>180</v>
@@ -1294,8 +1288,8 @@
       <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>12</v>
+      <c r="B23" s="6">
+        <v>90</v>
       </c>
       <c r="C23" s="1">
         <v>180</v>
@@ -1320,8 +1314,8 @@
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>12</v>
+      <c r="B24" s="6">
+        <v>90</v>
       </c>
       <c r="C24" s="1">
         <v>180</v>
@@ -1346,8 +1340,8 @@
       <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>12</v>
+      <c r="B25" s="6">
+        <v>90</v>
       </c>
       <c r="C25" s="1">
         <v>180</v>
@@ -1372,8 +1366,8 @@
       <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>12</v>
+      <c r="B26" s="6">
+        <v>90</v>
       </c>
       <c r="C26" s="1">
         <v>180</v>
@@ -1398,8 +1392,8 @@
       <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>12</v>
+      <c r="B27" s="6">
+        <v>90</v>
       </c>
       <c r="C27" s="1">
         <v>180</v>
@@ -1424,8 +1418,8 @@
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>12</v>
+      <c r="B28" s="6">
+        <v>90</v>
       </c>
       <c r="C28" s="1">
         <v>180</v>
@@ -1450,8 +1444,8 @@
       <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>12</v>
+      <c r="B29" s="6">
+        <v>90</v>
       </c>
       <c r="C29" s="1">
         <v>180</v>
@@ -1476,8 +1470,8 @@
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>12</v>
+      <c r="B30" s="6">
+        <v>90</v>
       </c>
       <c r="C30" s="1">
         <v>180</v>
@@ -1502,8 +1496,8 @@
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>12</v>
+      <c r="B31" s="6">
+        <v>90</v>
       </c>
       <c r="C31" s="1">
         <v>180</v>
@@ -1528,8 +1522,8 @@
       <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>12</v>
+      <c r="B32" s="6">
+        <v>90</v>
       </c>
       <c r="C32" s="1">
         <v>180</v>
@@ -1554,8 +1548,8 @@
       <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>12</v>
+      <c r="B33" s="6">
+        <v>90</v>
       </c>
       <c r="C33" s="1">
         <v>180</v>
@@ -1580,8 +1574,8 @@
       <c r="A34" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>12</v>
+      <c r="B34" s="6">
+        <v>90</v>
       </c>
       <c r="C34" s="1">
         <v>180</v>
@@ -1606,8 +1600,8 @@
       <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>12</v>
+      <c r="B35" s="6">
+        <v>90</v>
       </c>
       <c r="C35" s="1">
         <v>180</v>
@@ -1632,8 +1626,8 @@
       <c r="A36" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>12</v>
+      <c r="B36" s="6">
+        <v>90</v>
       </c>
       <c r="C36" s="1">
         <v>180</v>
@@ -1658,8 +1652,8 @@
       <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>12</v>
+      <c r="B37" s="6">
+        <v>90</v>
       </c>
       <c r="C37" s="1">
         <v>180</v>
@@ -1684,8 +1678,8 @@
       <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>12</v>
+      <c r="B38" s="6">
+        <v>90</v>
       </c>
       <c r="C38" s="1">
         <v>180</v>
@@ -1710,8 +1704,8 @@
       <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>12</v>
+      <c r="B39" s="6">
+        <v>90</v>
       </c>
       <c r="C39" s="1">
         <v>180</v>
@@ -1736,8 +1730,8 @@
       <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>12</v>
+      <c r="B40" s="6">
+        <v>90</v>
       </c>
       <c r="C40" s="1">
         <v>180</v>
@@ -1762,8 +1756,8 @@
       <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>12</v>
+      <c r="B41" s="6">
+        <v>90</v>
       </c>
       <c r="C41" s="1">
         <v>180</v>
@@ -1788,8 +1782,8 @@
       <c r="A42" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>12</v>
+      <c r="B42" s="6">
+        <v>90</v>
       </c>
       <c r="C42" s="1">
         <v>180</v>
@@ -1814,8 +1808,8 @@
       <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>12</v>
+      <c r="B43" s="6">
+        <v>90</v>
       </c>
       <c r="C43" s="1">
         <v>180</v>
@@ -1840,8 +1834,8 @@
       <c r="A44" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>12</v>
+      <c r="B44" s="6">
+        <v>90</v>
       </c>
       <c r="C44" s="1">
         <v>180</v>
@@ -1866,8 +1860,8 @@
       <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>12</v>
+      <c r="B45" s="6">
+        <v>90</v>
       </c>
       <c r="C45" s="1">
         <v>180</v>
@@ -1892,8 +1886,8 @@
       <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>12</v>
+      <c r="B46" s="6">
+        <v>90</v>
       </c>
       <c r="C46" s="1">
         <v>180</v>
@@ -1918,8 +1912,8 @@
       <c r="A47" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>12</v>
+      <c r="B47" s="6">
+        <v>90</v>
       </c>
       <c r="C47" s="1">
         <v>180</v>
@@ -1944,8 +1938,8 @@
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>12</v>
+      <c r="B48" s="6">
+        <v>90</v>
       </c>
       <c r="C48" s="1">
         <v>180</v>
@@ -1970,8 +1964,8 @@
       <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>12</v>
+      <c r="B49" s="6">
+        <v>90</v>
       </c>
       <c r="C49" s="1">
         <v>180</v>
@@ -1996,8 +1990,8 @@
       <c r="A50" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>12</v>
+      <c r="B50" s="6">
+        <v>90</v>
       </c>
       <c r="C50" s="1">
         <v>180</v>
@@ -2022,8 +2016,8 @@
       <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>12</v>
+      <c r="B51" s="6">
+        <v>90</v>
       </c>
       <c r="C51" s="1">
         <v>180</v>
@@ -2048,8 +2042,8 @@
       <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>12</v>
+      <c r="B52" s="6">
+        <v>90</v>
       </c>
       <c r="C52" s="1">
         <v>180</v>
@@ -2074,8 +2068,8 @@
       <c r="A53" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>12</v>
+      <c r="B53" s="6">
+        <v>90</v>
       </c>
       <c r="C53" s="1">
         <v>180</v>
@@ -2100,8 +2094,8 @@
       <c r="A54" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>12</v>
+      <c r="B54" s="6">
+        <v>90</v>
       </c>
       <c r="C54" s="1">
         <v>180</v>
@@ -2126,8 +2120,8 @@
       <c r="A55" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>12</v>
+      <c r="B55" s="6">
+        <v>90</v>
       </c>
       <c r="C55" s="1">
         <v>180</v>
@@ -2152,8 +2146,8 @@
       <c r="A56" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>12</v>
+      <c r="B56" s="6">
+        <v>90</v>
       </c>
       <c r="C56" s="1">
         <v>180</v>
@@ -2178,8 +2172,8 @@
       <c r="A57" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>12</v>
+      <c r="B57" s="6">
+        <v>90</v>
       </c>
       <c r="C57" s="1">
         <v>180</v>
@@ -2204,8 +2198,8 @@
       <c r="A58" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>12</v>
+      <c r="B58" s="6">
+        <v>90</v>
       </c>
       <c r="C58" s="1">
         <v>180</v>
@@ -2230,8 +2224,8 @@
       <c r="A59" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>12</v>
+      <c r="B59" s="6">
+        <v>90</v>
       </c>
       <c r="C59" s="1">
         <v>180</v>
@@ -2256,8 +2250,8 @@
       <c r="A60" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>12</v>
+      <c r="B60" s="6">
+        <v>90</v>
       </c>
       <c r="C60" s="1">
         <v>180</v>
@@ -2282,8 +2276,8 @@
       <c r="A61" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>12</v>
+      <c r="B61" s="6">
+        <v>90</v>
       </c>
       <c r="C61" s="1">
         <v>180</v>
@@ -2308,8 +2302,8 @@
       <c r="A62" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>12</v>
+      <c r="B62" s="6">
+        <v>90</v>
       </c>
       <c r="C62" s="1">
         <v>180</v>
@@ -2334,8 +2328,8 @@
       <c r="A63" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>12</v>
+      <c r="B63" s="6">
+        <v>90</v>
       </c>
       <c r="C63" s="1">
         <v>180</v>
@@ -2360,8 +2354,8 @@
       <c r="A64" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>12</v>
+      <c r="B64" s="6">
+        <v>90</v>
       </c>
       <c r="C64" s="1">
         <v>180</v>
@@ -2386,8 +2380,8 @@
       <c r="A65" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>12</v>
+      <c r="B65" s="6">
+        <v>90</v>
       </c>
       <c r="C65" s="1">
         <v>180</v>
@@ -2412,8 +2406,8 @@
       <c r="A66" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>12</v>
+      <c r="B66" s="6">
+        <v>90</v>
       </c>
       <c r="C66" s="1">
         <v>180</v>
@@ -2438,8 +2432,8 @@
       <c r="A67" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>12</v>
+      <c r="B67" s="6">
+        <v>90</v>
       </c>
       <c r="C67" s="1">
         <v>180</v>
@@ -2464,8 +2458,8 @@
       <c r="A68" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>12</v>
+      <c r="B68" s="6">
+        <v>90</v>
       </c>
       <c r="C68" s="1">
         <v>180</v>
@@ -2490,8 +2484,8 @@
       <c r="A69" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>12</v>
+      <c r="B69" s="6">
+        <v>90</v>
       </c>
       <c r="C69" s="1">
         <v>180</v>
@@ -2516,8 +2510,8 @@
       <c r="A70" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>12</v>
+      <c r="B70" s="6">
+        <v>90</v>
       </c>
       <c r="C70" s="1">
         <v>180</v>
@@ -2542,8 +2536,8 @@
       <c r="A71" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>12</v>
+      <c r="B71" s="6">
+        <v>90</v>
       </c>
       <c r="C71" s="1">
         <v>180</v>
@@ -2568,8 +2562,8 @@
       <c r="A72" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>12</v>
+      <c r="B72" s="6">
+        <v>90</v>
       </c>
       <c r="C72" s="1">
         <v>180</v>
@@ -2594,8 +2588,8 @@
       <c r="A73" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>12</v>
+      <c r="B73" s="6">
+        <v>90</v>
       </c>
       <c r="C73" s="1">
         <v>180</v>
@@ -2620,8 +2614,8 @@
       <c r="A74" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>12</v>
+      <c r="B74" s="6">
+        <v>90</v>
       </c>
       <c r="C74" s="1">
         <v>180</v>
@@ -2646,8 +2640,8 @@
       <c r="A75" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>12</v>
+      <c r="B75" s="6">
+        <v>90</v>
       </c>
       <c r="C75" s="1">
         <v>180</v>
@@ -2672,8 +2666,8 @@
       <c r="A76" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>12</v>
+      <c r="B76" s="6">
+        <v>90</v>
       </c>
       <c r="C76" s="1">
         <v>180</v>
@@ -2698,8 +2692,8 @@
       <c r="A77" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>12</v>
+      <c r="B77" s="6">
+        <v>90</v>
       </c>
       <c r="C77" s="1">
         <v>180</v>
@@ -2724,8 +2718,8 @@
       <c r="A78" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>12</v>
+      <c r="B78" s="6">
+        <v>90</v>
       </c>
       <c r="C78" s="1">
         <v>180</v>
@@ -2750,8 +2744,8 @@
       <c r="A79" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>12</v>
+      <c r="B79" s="6">
+        <v>90</v>
       </c>
       <c r="C79" s="1">
         <v>180</v>
@@ -2776,8 +2770,8 @@
       <c r="A80" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="13" t="s">
-        <v>12</v>
+      <c r="B80" s="6">
+        <v>90</v>
       </c>
       <c r="C80" s="1">
         <v>180</v>
@@ -2802,8 +2796,8 @@
       <c r="A81" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>12</v>
+      <c r="B81" s="6">
+        <v>90</v>
       </c>
       <c r="C81" s="1">
         <v>180</v>
@@ -2828,8 +2822,8 @@
       <c r="A82" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>12</v>
+      <c r="B82" s="6">
+        <v>90</v>
       </c>
       <c r="C82" s="1">
         <v>180</v>
@@ -2854,8 +2848,8 @@
       <c r="A83" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>12</v>
+      <c r="B83" s="6">
+        <v>90</v>
       </c>
       <c r="C83" s="1">
         <v>180</v>
@@ -2880,8 +2874,8 @@
       <c r="A84" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>12</v>
+      <c r="B84" s="6">
+        <v>90</v>
       </c>
       <c r="C84" s="1">
         <v>180</v>
@@ -2906,8 +2900,8 @@
       <c r="A85" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>12</v>
+      <c r="B85" s="6">
+        <v>90</v>
       </c>
       <c r="C85" s="1">
         <v>180</v>
@@ -2932,8 +2926,8 @@
       <c r="A86" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>12</v>
+      <c r="B86" s="6">
+        <v>90</v>
       </c>
       <c r="C86" s="1">
         <v>180</v>
@@ -2958,8 +2952,8 @@
       <c r="A87" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>12</v>
+      <c r="B87" s="6">
+        <v>90</v>
       </c>
       <c r="C87" s="1">
         <v>180</v>
@@ -2984,8 +2978,8 @@
       <c r="A88" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>12</v>
+      <c r="B88" s="6">
+        <v>90</v>
       </c>
       <c r="C88" s="1">
         <v>180</v>
@@ -3010,8 +3004,8 @@
       <c r="A89" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>12</v>
+      <c r="B89" s="6">
+        <v>90</v>
       </c>
       <c r="C89" s="1">
         <v>180</v>
@@ -3036,8 +3030,8 @@
       <c r="A90" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>12</v>
+      <c r="B90" s="6">
+        <v>90</v>
       </c>
       <c r="C90" s="1">
         <v>180</v>
@@ -3062,8 +3056,8 @@
       <c r="A91" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>12</v>
+      <c r="B91" s="6">
+        <v>90</v>
       </c>
       <c r="C91" s="1">
         <v>180</v>
@@ -3088,8 +3082,8 @@
       <c r="A92" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>12</v>
+      <c r="B92" s="6">
+        <v>90</v>
       </c>
       <c r="C92" s="1">
         <v>180</v>
@@ -3114,8 +3108,8 @@
       <c r="A93" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>12</v>
+      <c r="B93" s="6">
+        <v>90</v>
       </c>
       <c r="C93" s="1">
         <v>180</v>
@@ -3140,8 +3134,8 @@
       <c r="A94" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>12</v>
+      <c r="B94" s="6">
+        <v>90</v>
       </c>
       <c r="C94" s="1">
         <v>180</v>
@@ -3166,8 +3160,8 @@
       <c r="A95" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>12</v>
+      <c r="B95" s="6">
+        <v>90</v>
       </c>
       <c r="C95" s="1">
         <v>180</v>
@@ -3192,8 +3186,8 @@
       <c r="A96" t="s">
         <v>11</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>12</v>
+      <c r="B96" s="6">
+        <v>90</v>
       </c>
       <c r="C96" s="1">
         <v>180</v>
@@ -3218,8 +3212,8 @@
       <c r="A97" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>12</v>
+      <c r="B97" s="6">
+        <v>90</v>
       </c>
       <c r="C97" s="1">
         <v>180</v>
@@ -3244,8 +3238,8 @@
       <c r="A98" t="s">
         <v>11</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>12</v>
+      <c r="B98" s="6">
+        <v>90</v>
       </c>
       <c r="C98" s="1">
         <v>180</v>
@@ -3270,8 +3264,8 @@
       <c r="A99" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>12</v>
+      <c r="B99" s="6">
+        <v>90</v>
       </c>
       <c r="C99" s="1">
         <v>180</v>
@@ -3296,8 +3290,8 @@
       <c r="A100" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>12</v>
+      <c r="B100" s="6">
+        <v>90</v>
       </c>
       <c r="C100" s="1">
         <v>180</v>
@@ -3322,8 +3316,8 @@
       <c r="A101" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>12</v>
+      <c r="B101" s="6">
+        <v>90</v>
       </c>
       <c r="C101" s="1">
         <v>180</v>
@@ -3348,8 +3342,8 @@
       <c r="A102" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>12</v>
+      <c r="B102" s="6">
+        <v>90</v>
       </c>
       <c r="C102" s="1">
         <v>180</v>
@@ -3374,8 +3368,8 @@
       <c r="A103" t="s">
         <v>11</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>12</v>
+      <c r="B103" s="6">
+        <v>90</v>
       </c>
       <c r="C103" s="1">
         <v>180</v>
@@ -3400,8 +3394,8 @@
       <c r="A104" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>12</v>
+      <c r="B104" s="6">
+        <v>90</v>
       </c>
       <c r="C104" s="1">
         <v>180</v>
@@ -3426,8 +3420,8 @@
       <c r="A105" t="s">
         <v>11</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>12</v>
+      <c r="B105" s="6">
+        <v>90</v>
       </c>
       <c r="C105" s="1">
         <v>180</v>
@@ -3452,8 +3446,8 @@
       <c r="A106" t="s">
         <v>11</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>12</v>
+      <c r="B106" s="6">
+        <v>90</v>
       </c>
       <c r="C106" s="1">
         <v>180</v>
@@ -3478,8 +3472,8 @@
       <c r="A107" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>12</v>
+      <c r="B107" s="6">
+        <v>90</v>
       </c>
       <c r="C107" s="1">
         <v>180</v>
@@ -3504,8 +3498,8 @@
       <c r="A108" t="s">
         <v>11</v>
       </c>
-      <c r="B108" s="6" t="s">
-        <v>12</v>
+      <c r="B108" s="6">
+        <v>90</v>
       </c>
       <c r="C108" s="1">
         <v>180</v>
@@ -3530,8 +3524,8 @@
       <c r="A109" t="s">
         <v>11</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>12</v>
+      <c r="B109" s="6">
+        <v>90</v>
       </c>
       <c r="C109" s="1">
         <v>180</v>
@@ -3556,8 +3550,8 @@
       <c r="A110" t="s">
         <v>11</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>12</v>
+      <c r="B110" s="6">
+        <v>90</v>
       </c>
       <c r="C110" s="1">
         <v>180</v>
@@ -3582,8 +3576,8 @@
       <c r="A111" t="s">
         <v>11</v>
       </c>
-      <c r="B111" s="6" t="s">
-        <v>12</v>
+      <c r="B111" s="6">
+        <v>90</v>
       </c>
       <c r="C111" s="1">
         <v>180</v>
@@ -3608,8 +3602,8 @@
       <c r="A112" t="s">
         <v>11</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>12</v>
+      <c r="B112" s="6">
+        <v>90</v>
       </c>
       <c r="C112" s="1">
         <v>180</v>
@@ -3634,8 +3628,8 @@
       <c r="A113" t="s">
         <v>11</v>
       </c>
-      <c r="B113" s="6" t="s">
-        <v>12</v>
+      <c r="B113" s="6">
+        <v>90</v>
       </c>
       <c r="C113" s="1">
         <v>180</v>
@@ -3660,8 +3654,8 @@
       <c r="A114" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>12</v>
+      <c r="B114" s="6">
+        <v>90</v>
       </c>
       <c r="C114" s="1">
         <v>180</v>
@@ -3686,8 +3680,8 @@
       <c r="A115" t="s">
         <v>11</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>12</v>
+      <c r="B115" s="6">
+        <v>90</v>
       </c>
       <c r="C115" s="1">
         <v>180</v>
@@ -3712,8 +3706,8 @@
       <c r="A116" t="s">
         <v>11</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>12</v>
+      <c r="B116" s="6">
+        <v>90</v>
       </c>
       <c r="C116" s="1">
         <v>180</v>
@@ -3738,8 +3732,8 @@
       <c r="A117" t="s">
         <v>11</v>
       </c>
-      <c r="B117" s="6" t="s">
-        <v>12</v>
+      <c r="B117" s="6">
+        <v>90</v>
       </c>
       <c r="C117" s="1">
         <v>180</v>
@@ -3764,8 +3758,8 @@
       <c r="A118" t="s">
         <v>11</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>12</v>
+      <c r="B118" s="6">
+        <v>90</v>
       </c>
       <c r="C118" s="1">
         <v>180</v>
@@ -3790,8 +3784,8 @@
       <c r="A119" t="s">
         <v>11</v>
       </c>
-      <c r="B119" s="6" t="s">
-        <v>12</v>
+      <c r="B119" s="6">
+        <v>90</v>
       </c>
       <c r="C119" s="1">
         <v>180</v>
@@ -3816,8 +3810,8 @@
       <c r="A120" t="s">
         <v>11</v>
       </c>
-      <c r="B120" s="6" t="s">
-        <v>12</v>
+      <c r="B120" s="6">
+        <v>90</v>
       </c>
       <c r="C120" s="1">
         <v>180</v>
@@ -3842,8 +3836,8 @@
       <c r="A121" t="s">
         <v>11</v>
       </c>
-      <c r="B121" s="6" t="s">
-        <v>12</v>
+      <c r="B121" s="6">
+        <v>90</v>
       </c>
       <c r="C121" s="1">
         <v>180</v>
@@ -3868,8 +3862,8 @@
       <c r="A122" t="s">
         <v>11</v>
       </c>
-      <c r="B122" s="6" t="s">
-        <v>12</v>
+      <c r="B122" s="6">
+        <v>90</v>
       </c>
       <c r="C122" s="1">
         <v>180</v>
@@ -3894,8 +3888,8 @@
       <c r="A123" t="s">
         <v>11</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>12</v>
+      <c r="B123" s="6">
+        <v>90</v>
       </c>
       <c r="C123" s="1">
         <v>180</v>
@@ -3920,8 +3914,8 @@
       <c r="A124" t="s">
         <v>11</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>12</v>
+      <c r="B124" s="6">
+        <v>90</v>
       </c>
       <c r="C124" s="1">
         <v>180</v>
@@ -3946,8 +3940,8 @@
       <c r="A125" t="s">
         <v>11</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>12</v>
+      <c r="B125" s="6">
+        <v>90</v>
       </c>
       <c r="C125" s="1">
         <v>180</v>
@@ -3972,8 +3966,8 @@
       <c r="A126" t="s">
         <v>11</v>
       </c>
-      <c r="B126" s="6" t="s">
-        <v>12</v>
+      <c r="B126" s="6">
+        <v>90</v>
       </c>
       <c r="C126" s="1">
         <v>180</v>
@@ -3998,8 +3992,8 @@
       <c r="A127" t="s">
         <v>11</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>12</v>
+      <c r="B127" s="6">
+        <v>90</v>
       </c>
       <c r="C127" s="1">
         <v>180</v>
@@ -4024,8 +4018,8 @@
       <c r="A128" t="s">
         <v>11</v>
       </c>
-      <c r="B128" s="6" t="s">
-        <v>12</v>
+      <c r="B128" s="6">
+        <v>90</v>
       </c>
       <c r="C128" s="1">
         <v>180</v>
@@ -4050,8 +4044,8 @@
       <c r="A129" t="s">
         <v>11</v>
       </c>
-      <c r="B129" s="6" t="s">
-        <v>12</v>
+      <c r="B129" s="6">
+        <v>90</v>
       </c>
       <c r="C129" s="1">
         <v>180</v>
@@ -4076,8 +4070,8 @@
       <c r="A130" t="s">
         <v>11</v>
       </c>
-      <c r="B130" s="6" t="s">
-        <v>12</v>
+      <c r="B130" s="6">
+        <v>90</v>
       </c>
       <c r="C130" s="1">
         <v>180</v>
@@ -4102,8 +4096,8 @@
       <c r="A131" t="s">
         <v>11</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>12</v>
+      <c r="B131" s="6">
+        <v>90</v>
       </c>
       <c r="C131" s="1">
         <v>180</v>
@@ -4128,8 +4122,8 @@
       <c r="A132" t="s">
         <v>11</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>12</v>
+      <c r="B132" s="6">
+        <v>90</v>
       </c>
       <c r="C132" s="1">
         <v>180</v>
@@ -4154,8 +4148,8 @@
       <c r="A133" t="s">
         <v>11</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>12</v>
+      <c r="B133" s="6">
+        <v>90</v>
       </c>
       <c r="C133" s="1">
         <v>180</v>
@@ -4180,8 +4174,8 @@
       <c r="A134" t="s">
         <v>11</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>12</v>
+      <c r="B134" s="6">
+        <v>90</v>
       </c>
       <c r="C134" s="1">
         <v>180</v>
@@ -4206,8 +4200,8 @@
       <c r="A135" t="s">
         <v>11</v>
       </c>
-      <c r="B135" s="6" t="s">
-        <v>12</v>
+      <c r="B135" s="6">
+        <v>90</v>
       </c>
       <c r="C135" s="1">
         <v>180</v>
@@ -4232,8 +4226,8 @@
       <c r="A136" t="s">
         <v>11</v>
       </c>
-      <c r="B136" s="6" t="s">
-        <v>12</v>
+      <c r="B136" s="6">
+        <v>90</v>
       </c>
       <c r="C136" s="1">
         <v>180</v>
@@ -4258,8 +4252,8 @@
       <c r="A137" t="s">
         <v>11</v>
       </c>
-      <c r="B137" s="6" t="s">
-        <v>12</v>
+      <c r="B137" s="6">
+        <v>90</v>
       </c>
       <c r="C137" s="1">
         <v>180</v>
@@ -4284,8 +4278,8 @@
       <c r="A138" t="s">
         <v>11</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>12</v>
+      <c r="B138" s="6">
+        <v>90</v>
       </c>
       <c r="C138" s="1">
         <v>180</v>
@@ -4310,8 +4304,8 @@
       <c r="A139" t="s">
         <v>11</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>12</v>
+      <c r="B139" s="6">
+        <v>90</v>
       </c>
       <c r="C139" s="1">
         <v>180</v>
@@ -4336,8 +4330,8 @@
       <c r="A140" t="s">
         <v>11</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>12</v>
+      <c r="B140" s="6">
+        <v>90</v>
       </c>
       <c r="C140" s="1">
         <v>180</v>
@@ -4362,8 +4356,8 @@
       <c r="A141" t="s">
         <v>11</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>12</v>
+      <c r="B141" s="6">
+        <v>90</v>
       </c>
       <c r="C141" s="1">
         <v>180</v>
@@ -4388,8 +4382,8 @@
       <c r="A142" t="s">
         <v>11</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>12</v>
+      <c r="B142" s="6">
+        <v>90</v>
       </c>
       <c r="C142" s="1">
         <v>180</v>
@@ -4414,8 +4408,8 @@
       <c r="A143" t="s">
         <v>11</v>
       </c>
-      <c r="B143" s="6" t="s">
-        <v>12</v>
+      <c r="B143" s="6">
+        <v>90</v>
       </c>
       <c r="C143" s="1">
         <v>180</v>
@@ -4440,8 +4434,8 @@
       <c r="A144" t="s">
         <v>11</v>
       </c>
-      <c r="B144" s="6" t="s">
-        <v>12</v>
+      <c r="B144" s="6">
+        <v>90</v>
       </c>
       <c r="C144" s="1">
         <v>180</v>
@@ -4466,8 +4460,8 @@
       <c r="A145" t="s">
         <v>11</v>
       </c>
-      <c r="B145" s="6" t="s">
-        <v>12</v>
+      <c r="B145" s="6">
+        <v>90</v>
       </c>
       <c r="C145" s="1">
         <v>180</v>
@@ -4492,8 +4486,8 @@
       <c r="A146" t="s">
         <v>11</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>12</v>
+      <c r="B146" s="6">
+        <v>90</v>
       </c>
       <c r="C146" s="1">
         <v>180</v>
@@ -4518,8 +4512,8 @@
       <c r="A147" t="s">
         <v>11</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>12</v>
+      <c r="B147" s="6">
+        <v>90</v>
       </c>
       <c r="C147" s="1">
         <v>180</v>
@@ -4544,8 +4538,8 @@
       <c r="A148" t="s">
         <v>11</v>
       </c>
-      <c r="B148" s="6" t="s">
-        <v>12</v>
+      <c r="B148" s="6">
+        <v>90</v>
       </c>
       <c r="C148" s="1">
         <v>180</v>
@@ -4570,8 +4564,8 @@
       <c r="A149" t="s">
         <v>11</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>12</v>
+      <c r="B149" s="6">
+        <v>90</v>
       </c>
       <c r="C149" s="1">
         <v>180</v>
@@ -4596,8 +4590,8 @@
       <c r="A150" t="s">
         <v>11</v>
       </c>
-      <c r="B150" s="6" t="s">
-        <v>12</v>
+      <c r="B150" s="6">
+        <v>90</v>
       </c>
       <c r="C150" s="1">
         <v>180</v>
@@ -4622,8 +4616,8 @@
       <c r="A151" t="s">
         <v>11</v>
       </c>
-      <c r="B151" s="6" t="s">
-        <v>12</v>
+      <c r="B151" s="6">
+        <v>90</v>
       </c>
       <c r="C151" s="1">
         <v>180</v>
@@ -4648,8 +4642,8 @@
       <c r="A152" t="s">
         <v>11</v>
       </c>
-      <c r="B152" s="6" t="s">
-        <v>12</v>
+      <c r="B152" s="6">
+        <v>90</v>
       </c>
       <c r="C152" s="1">
         <v>180</v>
@@ -4674,8 +4668,8 @@
       <c r="A153" t="s">
         <v>11</v>
       </c>
-      <c r="B153" s="6" t="s">
-        <v>12</v>
+      <c r="B153" s="6">
+        <v>90</v>
       </c>
       <c r="C153" s="1">
         <v>180</v>
@@ -4700,8 +4694,8 @@
       <c r="A154" t="s">
         <v>11</v>
       </c>
-      <c r="B154" s="6" t="s">
-        <v>12</v>
+      <c r="B154" s="6">
+        <v>90</v>
       </c>
       <c r="C154" s="1">
         <v>180</v>
@@ -4726,8 +4720,8 @@
       <c r="A155" t="s">
         <v>11</v>
       </c>
-      <c r="B155" s="6" t="s">
-        <v>12</v>
+      <c r="B155" s="6">
+        <v>90</v>
       </c>
       <c r="C155" s="1">
         <v>180</v>
@@ -4752,8 +4746,8 @@
       <c r="A156" t="s">
         <v>11</v>
       </c>
-      <c r="B156" s="6" t="s">
-        <v>12</v>
+      <c r="B156" s="6">
+        <v>90</v>
       </c>
       <c r="C156" s="1">
         <v>180</v>
@@ -4778,8 +4772,8 @@
       <c r="A157" t="s">
         <v>11</v>
       </c>
-      <c r="B157" s="6" t="s">
-        <v>12</v>
+      <c r="B157" s="6">
+        <v>90</v>
       </c>
       <c r="C157" s="1">
         <v>180</v>
@@ -4804,8 +4798,8 @@
       <c r="A158" t="s">
         <v>11</v>
       </c>
-      <c r="B158" s="13" t="s">
-        <v>12</v>
+      <c r="B158" s="6">
+        <v>90</v>
       </c>
       <c r="C158" s="1">
         <v>0</v>
@@ -4830,8 +4824,8 @@
       <c r="A159" t="s">
         <v>11</v>
       </c>
-      <c r="B159" s="6" t="s">
-        <v>12</v>
+      <c r="B159" s="6">
+        <v>90</v>
       </c>
       <c r="C159" s="1">
         <v>0</v>
@@ -4856,8 +4850,8 @@
       <c r="A160" t="s">
         <v>11</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>12</v>
+      <c r="B160" s="6">
+        <v>90</v>
       </c>
       <c r="C160" s="1">
         <v>0</v>
@@ -4882,8 +4876,8 @@
       <c r="A161" t="s">
         <v>11</v>
       </c>
-      <c r="B161" s="6" t="s">
-        <v>12</v>
+      <c r="B161" s="6">
+        <v>90</v>
       </c>
       <c r="C161" s="1">
         <v>0</v>
@@ -4908,8 +4902,8 @@
       <c r="A162" t="s">
         <v>11</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>12</v>
+      <c r="B162" s="6">
+        <v>90</v>
       </c>
       <c r="C162" s="1">
         <v>0</v>
@@ -4934,8 +4928,8 @@
       <c r="A163" t="s">
         <v>11</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>12</v>
+      <c r="B163" s="6">
+        <v>90</v>
       </c>
       <c r="C163" s="1">
         <v>0</v>
@@ -4960,8 +4954,8 @@
       <c r="A164" t="s">
         <v>11</v>
       </c>
-      <c r="B164" s="6" t="s">
-        <v>12</v>
+      <c r="B164" s="6">
+        <v>90</v>
       </c>
       <c r="C164" s="1">
         <v>0</v>
@@ -4986,8 +4980,8 @@
       <c r="A165" t="s">
         <v>11</v>
       </c>
-      <c r="B165" s="6" t="s">
-        <v>12</v>
+      <c r="B165" s="6">
+        <v>90</v>
       </c>
       <c r="C165" s="1">
         <v>0</v>
@@ -5012,8 +5006,8 @@
       <c r="A166" t="s">
         <v>11</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>12</v>
+      <c r="B166" s="6">
+        <v>90</v>
       </c>
       <c r="C166" s="1">
         <v>0</v>
@@ -5038,8 +5032,8 @@
       <c r="A167" t="s">
         <v>11</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>12</v>
+      <c r="B167" s="6">
+        <v>90</v>
       </c>
       <c r="C167" s="1">
         <v>0</v>
@@ -5064,8 +5058,8 @@
       <c r="A168" t="s">
         <v>11</v>
       </c>
-      <c r="B168" s="6" t="s">
-        <v>12</v>
+      <c r="B168" s="6">
+        <v>90</v>
       </c>
       <c r="C168" s="1">
         <v>0</v>
@@ -5090,8 +5084,8 @@
       <c r="A169" t="s">
         <v>11</v>
       </c>
-      <c r="B169" s="6" t="s">
-        <v>12</v>
+      <c r="B169" s="6">
+        <v>90</v>
       </c>
       <c r="C169" s="1">
         <v>0</v>
@@ -5116,8 +5110,8 @@
       <c r="A170" t="s">
         <v>11</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>12</v>
+      <c r="B170" s="6">
+        <v>90</v>
       </c>
       <c r="C170" s="1">
         <v>0</v>
@@ -5142,8 +5136,8 @@
       <c r="A171" t="s">
         <v>11</v>
       </c>
-      <c r="B171" s="6" t="s">
-        <v>12</v>
+      <c r="B171" s="6">
+        <v>90</v>
       </c>
       <c r="C171" s="1">
         <v>0</v>
@@ -5168,8 +5162,8 @@
       <c r="A172" t="s">
         <v>11</v>
       </c>
-      <c r="B172" s="6" t="s">
-        <v>12</v>
+      <c r="B172" s="6">
+        <v>90</v>
       </c>
       <c r="C172" s="1">
         <v>0</v>
@@ -5194,8 +5188,8 @@
       <c r="A173" t="s">
         <v>11</v>
       </c>
-      <c r="B173" s="6" t="s">
-        <v>12</v>
+      <c r="B173" s="6">
+        <v>90</v>
       </c>
       <c r="C173" s="1">
         <v>0</v>
@@ -5220,8 +5214,8 @@
       <c r="A174" t="s">
         <v>11</v>
       </c>
-      <c r="B174" s="6" t="s">
-        <v>12</v>
+      <c r="B174" s="6">
+        <v>90</v>
       </c>
       <c r="C174" s="1">
         <v>0</v>
@@ -5246,8 +5240,8 @@
       <c r="A175" t="s">
         <v>11</v>
       </c>
-      <c r="B175" s="6" t="s">
-        <v>12</v>
+      <c r="B175" s="6">
+        <v>90</v>
       </c>
       <c r="C175" s="1">
         <v>0</v>
@@ -5272,8 +5266,8 @@
       <c r="A176" t="s">
         <v>11</v>
       </c>
-      <c r="B176" s="6" t="s">
-        <v>12</v>
+      <c r="B176" s="6">
+        <v>90</v>
       </c>
       <c r="C176" s="1">
         <v>0</v>
@@ -5298,8 +5292,8 @@
       <c r="A177" t="s">
         <v>11</v>
       </c>
-      <c r="B177" s="6" t="s">
-        <v>12</v>
+      <c r="B177" s="6">
+        <v>90</v>
       </c>
       <c r="C177" s="1">
         <v>0</v>
@@ -5324,8 +5318,8 @@
       <c r="A178" t="s">
         <v>11</v>
       </c>
-      <c r="B178" s="6" t="s">
-        <v>12</v>
+      <c r="B178" s="6">
+        <v>90</v>
       </c>
       <c r="C178" s="1">
         <v>0</v>
@@ -5350,8 +5344,8 @@
       <c r="A179" t="s">
         <v>11</v>
       </c>
-      <c r="B179" s="6" t="s">
-        <v>12</v>
+      <c r="B179" s="6">
+        <v>90</v>
       </c>
       <c r="C179" s="1">
         <v>0</v>
@@ -5376,8 +5370,8 @@
       <c r="A180" t="s">
         <v>11</v>
       </c>
-      <c r="B180" s="6" t="s">
-        <v>12</v>
+      <c r="B180" s="6">
+        <v>90</v>
       </c>
       <c r="C180" s="1">
         <v>0</v>
@@ -5402,8 +5396,8 @@
       <c r="A181" t="s">
         <v>11</v>
       </c>
-      <c r="B181" s="6" t="s">
-        <v>12</v>
+      <c r="B181" s="6">
+        <v>90</v>
       </c>
       <c r="C181" s="1">
         <v>0</v>
@@ -5428,8 +5422,8 @@
       <c r="A182" t="s">
         <v>11</v>
       </c>
-      <c r="B182" s="6" t="s">
-        <v>12</v>
+      <c r="B182" s="6">
+        <v>90</v>
       </c>
       <c r="C182" s="1">
         <v>0</v>
@@ -5454,8 +5448,8 @@
       <c r="A183" t="s">
         <v>11</v>
       </c>
-      <c r="B183" s="6" t="s">
-        <v>12</v>
+      <c r="B183" s="6">
+        <v>90</v>
       </c>
       <c r="C183" s="1">
         <v>0</v>
@@ -5480,8 +5474,8 @@
       <c r="A184" t="s">
         <v>11</v>
       </c>
-      <c r="B184" s="6" t="s">
-        <v>12</v>
+      <c r="B184" s="6">
+        <v>90</v>
       </c>
       <c r="C184" s="1">
         <v>0</v>
@@ -5506,8 +5500,8 @@
       <c r="A185" t="s">
         <v>11</v>
       </c>
-      <c r="B185" s="6" t="s">
-        <v>12</v>
+      <c r="B185" s="6">
+        <v>90</v>
       </c>
       <c r="C185" s="1">
         <v>0</v>
@@ -5532,8 +5526,8 @@
       <c r="A186" t="s">
         <v>11</v>
       </c>
-      <c r="B186" s="6" t="s">
-        <v>12</v>
+      <c r="B186" s="6">
+        <v>90</v>
       </c>
       <c r="C186" s="1">
         <v>0</v>
@@ -5558,8 +5552,8 @@
       <c r="A187" t="s">
         <v>11</v>
       </c>
-      <c r="B187" s="6" t="s">
-        <v>12</v>
+      <c r="B187" s="6">
+        <v>90</v>
       </c>
       <c r="C187" s="1">
         <v>0</v>
@@ -5584,8 +5578,8 @@
       <c r="A188" t="s">
         <v>11</v>
       </c>
-      <c r="B188" s="6" t="s">
-        <v>12</v>
+      <c r="B188" s="6">
+        <v>90</v>
       </c>
       <c r="C188" s="1">
         <v>0</v>
@@ -5610,8 +5604,8 @@
       <c r="A189" t="s">
         <v>11</v>
       </c>
-      <c r="B189" s="6" t="s">
-        <v>12</v>
+      <c r="B189" s="6">
+        <v>90</v>
       </c>
       <c r="C189" s="1">
         <v>0</v>
@@ -5636,8 +5630,8 @@
       <c r="A190" t="s">
         <v>11</v>
       </c>
-      <c r="B190" s="6" t="s">
-        <v>12</v>
+      <c r="B190" s="6">
+        <v>90</v>
       </c>
       <c r="C190" s="1">
         <v>0</v>
@@ -5662,8 +5656,8 @@
       <c r="A191" t="s">
         <v>11</v>
       </c>
-      <c r="B191" s="6" t="s">
-        <v>12</v>
+      <c r="B191" s="6">
+        <v>90</v>
       </c>
       <c r="C191" s="1">
         <v>0</v>
@@ -5688,8 +5682,8 @@
       <c r="A192" t="s">
         <v>11</v>
       </c>
-      <c r="B192" s="6" t="s">
-        <v>12</v>
+      <c r="B192" s="6">
+        <v>90</v>
       </c>
       <c r="C192" s="1">
         <v>0</v>
@@ -5714,8 +5708,8 @@
       <c r="A193" t="s">
         <v>11</v>
       </c>
-      <c r="B193" s="6" t="s">
-        <v>12</v>
+      <c r="B193" s="6">
+        <v>90</v>
       </c>
       <c r="C193" s="1">
         <v>0</v>
@@ -5740,8 +5734,8 @@
       <c r="A194" t="s">
         <v>11</v>
       </c>
-      <c r="B194" s="6" t="s">
-        <v>12</v>
+      <c r="B194" s="6">
+        <v>90</v>
       </c>
       <c r="C194" s="1">
         <v>0</v>
@@ -5766,8 +5760,8 @@
       <c r="A195" t="s">
         <v>11</v>
       </c>
-      <c r="B195" s="6" t="s">
-        <v>12</v>
+      <c r="B195" s="6">
+        <v>90</v>
       </c>
       <c r="C195" s="1">
         <v>0</v>
@@ -5792,8 +5786,8 @@
       <c r="A196" t="s">
         <v>11</v>
       </c>
-      <c r="B196" s="6" t="s">
-        <v>12</v>
+      <c r="B196" s="6">
+        <v>90</v>
       </c>
       <c r="C196" s="1">
         <v>0</v>
@@ -5818,8 +5812,8 @@
       <c r="A197" t="s">
         <v>11</v>
       </c>
-      <c r="B197" s="6" t="s">
-        <v>12</v>
+      <c r="B197" s="6">
+        <v>90</v>
       </c>
       <c r="C197" s="1">
         <v>0</v>
@@ -5844,8 +5838,8 @@
       <c r="A198" t="s">
         <v>11</v>
       </c>
-      <c r="B198" s="6" t="s">
-        <v>12</v>
+      <c r="B198" s="6">
+        <v>90</v>
       </c>
       <c r="C198" s="1">
         <v>0</v>
@@ -5870,8 +5864,8 @@
       <c r="A199" t="s">
         <v>11</v>
       </c>
-      <c r="B199" s="6" t="s">
-        <v>12</v>
+      <c r="B199" s="6">
+        <v>90</v>
       </c>
       <c r="C199" s="1">
         <v>0</v>
@@ -5896,8 +5890,8 @@
       <c r="A200" t="s">
         <v>11</v>
       </c>
-      <c r="B200" s="6" t="s">
-        <v>12</v>
+      <c r="B200" s="6">
+        <v>90</v>
       </c>
       <c r="C200" s="1">
         <v>0</v>
@@ -5922,8 +5916,8 @@
       <c r="A201" t="s">
         <v>11</v>
       </c>
-      <c r="B201" s="6" t="s">
-        <v>12</v>
+      <c r="B201" s="6">
+        <v>90</v>
       </c>
       <c r="C201" s="1">
         <v>0</v>
@@ -5948,8 +5942,8 @@
       <c r="A202" t="s">
         <v>11</v>
       </c>
-      <c r="B202" s="6" t="s">
-        <v>12</v>
+      <c r="B202" s="6">
+        <v>90</v>
       </c>
       <c r="C202" s="1">
         <v>0</v>
@@ -5974,8 +5968,8 @@
       <c r="A203" t="s">
         <v>11</v>
       </c>
-      <c r="B203" s="6" t="s">
-        <v>12</v>
+      <c r="B203" s="6">
+        <v>90</v>
       </c>
       <c r="C203" s="1">
         <v>0</v>
@@ -6000,8 +5994,8 @@
       <c r="A204" t="s">
         <v>11</v>
       </c>
-      <c r="B204" s="6" t="s">
-        <v>12</v>
+      <c r="B204" s="6">
+        <v>90</v>
       </c>
       <c r="C204" s="1">
         <v>0</v>
@@ -6026,8 +6020,8 @@
       <c r="A205" t="s">
         <v>11</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>12</v>
+      <c r="B205" s="6">
+        <v>90</v>
       </c>
       <c r="C205" s="1">
         <v>0</v>
@@ -6052,8 +6046,8 @@
       <c r="A206" t="s">
         <v>11</v>
       </c>
-      <c r="B206" s="6" t="s">
-        <v>12</v>
+      <c r="B206" s="6">
+        <v>90</v>
       </c>
       <c r="C206" s="1">
         <v>0</v>
@@ -6078,8 +6072,8 @@
       <c r="A207" t="s">
         <v>11</v>
       </c>
-      <c r="B207" s="6" t="s">
-        <v>12</v>
+      <c r="B207" s="6">
+        <v>90</v>
       </c>
       <c r="C207" s="1">
         <v>0</v>
@@ -6104,8 +6098,8 @@
       <c r="A208" t="s">
         <v>11</v>
       </c>
-      <c r="B208" s="6" t="s">
-        <v>12</v>
+      <c r="B208" s="6">
+        <v>90</v>
       </c>
       <c r="C208" s="1">
         <v>0</v>
@@ -6130,8 +6124,8 @@
       <c r="A209" t="s">
         <v>11</v>
       </c>
-      <c r="B209" s="6" t="s">
-        <v>12</v>
+      <c r="B209" s="6">
+        <v>90</v>
       </c>
       <c r="C209" s="1">
         <v>0</v>
@@ -6156,8 +6150,8 @@
       <c r="A210" t="s">
         <v>11</v>
       </c>
-      <c r="B210" s="6" t="s">
-        <v>12</v>
+      <c r="B210" s="6">
+        <v>90</v>
       </c>
       <c r="C210" s="1">
         <v>0</v>
@@ -6182,8 +6176,8 @@
       <c r="A211" t="s">
         <v>11</v>
       </c>
-      <c r="B211" s="6" t="s">
-        <v>12</v>
+      <c r="B211" s="6">
+        <v>90</v>
       </c>
       <c r="C211" s="1">
         <v>0</v>
@@ -6208,8 +6202,8 @@
       <c r="A212" t="s">
         <v>11</v>
       </c>
-      <c r="B212" s="6" t="s">
-        <v>12</v>
+      <c r="B212" s="6">
+        <v>90</v>
       </c>
       <c r="C212" s="1">
         <v>0</v>
@@ -6234,8 +6228,8 @@
       <c r="A213" t="s">
         <v>11</v>
       </c>
-      <c r="B213" s="6" t="s">
-        <v>12</v>
+      <c r="B213" s="6">
+        <v>90</v>
       </c>
       <c r="C213" s="1">
         <v>0</v>
@@ -6260,8 +6254,8 @@
       <c r="A214" t="s">
         <v>11</v>
       </c>
-      <c r="B214" s="6" t="s">
-        <v>12</v>
+      <c r="B214" s="6">
+        <v>90</v>
       </c>
       <c r="C214" s="1">
         <v>0</v>
@@ -6286,8 +6280,8 @@
       <c r="A215" t="s">
         <v>11</v>
       </c>
-      <c r="B215" s="6" t="s">
-        <v>12</v>
+      <c r="B215" s="6">
+        <v>90</v>
       </c>
       <c r="C215" s="1">
         <v>0</v>
@@ -6312,8 +6306,8 @@
       <c r="A216" t="s">
         <v>11</v>
       </c>
-      <c r="B216" s="6" t="s">
-        <v>12</v>
+      <c r="B216" s="6">
+        <v>90</v>
       </c>
       <c r="C216" s="1">
         <v>0</v>
@@ -6338,8 +6332,8 @@
       <c r="A217" t="s">
         <v>11</v>
       </c>
-      <c r="B217" s="6" t="s">
-        <v>12</v>
+      <c r="B217" s="6">
+        <v>90</v>
       </c>
       <c r="C217" s="1">
         <v>0</v>
@@ -6364,8 +6358,8 @@
       <c r="A218" t="s">
         <v>11</v>
       </c>
-      <c r="B218" s="6" t="s">
-        <v>12</v>
+      <c r="B218" s="6">
+        <v>90</v>
       </c>
       <c r="C218" s="1">
         <v>0</v>
@@ -6390,8 +6384,8 @@
       <c r="A219" t="s">
         <v>11</v>
       </c>
-      <c r="B219" s="6" t="s">
-        <v>12</v>
+      <c r="B219" s="6">
+        <v>90</v>
       </c>
       <c r="C219" s="1">
         <v>0</v>
@@ -6416,8 +6410,8 @@
       <c r="A220" t="s">
         <v>11</v>
       </c>
-      <c r="B220" s="6" t="s">
-        <v>12</v>
+      <c r="B220" s="6">
+        <v>90</v>
       </c>
       <c r="C220" s="1">
         <v>0</v>
@@ -6442,8 +6436,8 @@
       <c r="A221" t="s">
         <v>11</v>
       </c>
-      <c r="B221" s="6" t="s">
-        <v>12</v>
+      <c r="B221" s="6">
+        <v>90</v>
       </c>
       <c r="C221" s="1">
         <v>0</v>
@@ -6468,8 +6462,8 @@
       <c r="A222" t="s">
         <v>11</v>
       </c>
-      <c r="B222" s="6" t="s">
-        <v>12</v>
+      <c r="B222" s="6">
+        <v>90</v>
       </c>
       <c r="C222" s="1">
         <v>0</v>
@@ -6494,8 +6488,8 @@
       <c r="A223" t="s">
         <v>11</v>
       </c>
-      <c r="B223" s="6" t="s">
-        <v>12</v>
+      <c r="B223" s="6">
+        <v>90</v>
       </c>
       <c r="C223" s="1">
         <v>0</v>
@@ -6520,8 +6514,8 @@
       <c r="A224" t="s">
         <v>11</v>
       </c>
-      <c r="B224" s="6" t="s">
-        <v>12</v>
+      <c r="B224" s="6">
+        <v>90</v>
       </c>
       <c r="C224" s="1">
         <v>0</v>
@@ -6546,8 +6540,8 @@
       <c r="A225" t="s">
         <v>11</v>
       </c>
-      <c r="B225" s="6" t="s">
-        <v>12</v>
+      <c r="B225" s="6">
+        <v>90</v>
       </c>
       <c r="C225" s="1">
         <v>0</v>
@@ -6572,8 +6566,8 @@
       <c r="A226" t="s">
         <v>11</v>
       </c>
-      <c r="B226" s="6" t="s">
-        <v>12</v>
+      <c r="B226" s="6">
+        <v>90</v>
       </c>
       <c r="C226" s="1">
         <v>0</v>
@@ -6598,8 +6592,8 @@
       <c r="A227" t="s">
         <v>11</v>
       </c>
-      <c r="B227" s="6" t="s">
-        <v>12</v>
+      <c r="B227" s="6">
+        <v>90</v>
       </c>
       <c r="C227" s="1">
         <v>0</v>
@@ -6624,8 +6618,8 @@
       <c r="A228" t="s">
         <v>11</v>
       </c>
-      <c r="B228" s="6" t="s">
-        <v>12</v>
+      <c r="B228" s="6">
+        <v>90</v>
       </c>
       <c r="C228" s="1">
         <v>0</v>
@@ -6650,8 +6644,8 @@
       <c r="A229" t="s">
         <v>11</v>
       </c>
-      <c r="B229" s="6" t="s">
-        <v>12</v>
+      <c r="B229" s="6">
+        <v>90</v>
       </c>
       <c r="C229" s="1">
         <v>0</v>
@@ -6676,8 +6670,8 @@
       <c r="A230" t="s">
         <v>11</v>
       </c>
-      <c r="B230" s="6" t="s">
-        <v>12</v>
+      <c r="B230" s="6">
+        <v>90</v>
       </c>
       <c r="C230" s="1">
         <v>0</v>
@@ -6702,8 +6696,8 @@
       <c r="A231" t="s">
         <v>11</v>
       </c>
-      <c r="B231" s="6" t="s">
-        <v>12</v>
+      <c r="B231" s="6">
+        <v>90</v>
       </c>
       <c r="C231" s="1">
         <v>0</v>
@@ -6728,8 +6722,8 @@
       <c r="A232" t="s">
         <v>11</v>
       </c>
-      <c r="B232" s="6" t="s">
-        <v>12</v>
+      <c r="B232" s="6">
+        <v>90</v>
       </c>
       <c r="C232" s="1">
         <v>0</v>
@@ -6754,8 +6748,8 @@
       <c r="A233" t="s">
         <v>11</v>
       </c>
-      <c r="B233" s="6" t="s">
-        <v>12</v>
+      <c r="B233" s="6">
+        <v>90</v>
       </c>
       <c r="C233" s="1">
         <v>0</v>
@@ -6780,8 +6774,8 @@
       <c r="A234" t="s">
         <v>11</v>
       </c>
-      <c r="B234" s="6" t="s">
-        <v>12</v>
+      <c r="B234" s="6">
+        <v>90</v>
       </c>
       <c r="C234" s="1">
         <v>0</v>
@@ -6806,8 +6800,8 @@
       <c r="A235" t="s">
         <v>11</v>
       </c>
-      <c r="B235" s="6" t="s">
-        <v>12</v>
+      <c r="B235" s="6">
+        <v>90</v>
       </c>
       <c r="C235" s="1">
         <v>0</v>
@@ -6832,8 +6826,8 @@
       <c r="A236" t="s">
         <v>11</v>
       </c>
-      <c r="B236" s="13" t="s">
-        <v>12</v>
+      <c r="B236" s="6">
+        <v>90</v>
       </c>
       <c r="C236" s="1">
         <v>180</v>
@@ -6858,8 +6852,8 @@
       <c r="A237" t="s">
         <v>11</v>
       </c>
-      <c r="B237" s="6" t="s">
-        <v>12</v>
+      <c r="B237" s="6">
+        <v>90</v>
       </c>
       <c r="C237" s="1">
         <v>180</v>
@@ -6884,8 +6878,8 @@
       <c r="A238" t="s">
         <v>11</v>
       </c>
-      <c r="B238" s="6" t="s">
-        <v>12</v>
+      <c r="B238" s="6">
+        <v>90</v>
       </c>
       <c r="C238" s="1">
         <v>180</v>
@@ -6910,8 +6904,8 @@
       <c r="A239" t="s">
         <v>11</v>
       </c>
-      <c r="B239" s="6" t="s">
-        <v>12</v>
+      <c r="B239" s="6">
+        <v>90</v>
       </c>
       <c r="C239" s="1">
         <v>180</v>
@@ -6936,8 +6930,8 @@
       <c r="A240" t="s">
         <v>11</v>
       </c>
-      <c r="B240" s="6" t="s">
-        <v>12</v>
+      <c r="B240" s="6">
+        <v>90</v>
       </c>
       <c r="C240" s="1">
         <v>180</v>
@@ -6962,8 +6956,8 @@
       <c r="A241" t="s">
         <v>11</v>
       </c>
-      <c r="B241" s="6" t="s">
-        <v>12</v>
+      <c r="B241" s="6">
+        <v>90</v>
       </c>
       <c r="C241" s="1">
         <v>180</v>
@@ -6988,8 +6982,8 @@
       <c r="A242" t="s">
         <v>11</v>
       </c>
-      <c r="B242" s="6" t="s">
-        <v>12</v>
+      <c r="B242" s="6">
+        <v>90</v>
       </c>
       <c r="C242" s="1">
         <v>180</v>
@@ -7014,8 +7008,8 @@
       <c r="A243" t="s">
         <v>11</v>
       </c>
-      <c r="B243" s="6" t="s">
-        <v>12</v>
+      <c r="B243" s="6">
+        <v>90</v>
       </c>
       <c r="C243" s="1">
         <v>180</v>
@@ -7040,8 +7034,8 @@
       <c r="A244" t="s">
         <v>11</v>
       </c>
-      <c r="B244" s="6" t="s">
-        <v>12</v>
+      <c r="B244" s="6">
+        <v>90</v>
       </c>
       <c r="C244" s="1">
         <v>180</v>
@@ -7066,8 +7060,8 @@
       <c r="A245" t="s">
         <v>11</v>
       </c>
-      <c r="B245" s="6" t="s">
-        <v>12</v>
+      <c r="B245" s="6">
+        <v>90</v>
       </c>
       <c r="C245" s="1">
         <v>180</v>
@@ -7092,8 +7086,8 @@
       <c r="A246" t="s">
         <v>11</v>
       </c>
-      <c r="B246" s="6" t="s">
-        <v>12</v>
+      <c r="B246" s="6">
+        <v>90</v>
       </c>
       <c r="C246" s="1">
         <v>180</v>
@@ -7118,8 +7112,8 @@
       <c r="A247" t="s">
         <v>11</v>
       </c>
-      <c r="B247" s="6" t="s">
-        <v>12</v>
+      <c r="B247" s="6">
+        <v>90</v>
       </c>
       <c r="C247" s="1">
         <v>180</v>
@@ -7144,8 +7138,8 @@
       <c r="A248" t="s">
         <v>11</v>
       </c>
-      <c r="B248" s="6" t="s">
-        <v>12</v>
+      <c r="B248" s="6">
+        <v>90</v>
       </c>
       <c r="C248" s="1">
         <v>180</v>
@@ -7170,8 +7164,8 @@
       <c r="A249" t="s">
         <v>11</v>
       </c>
-      <c r="B249" s="6" t="s">
-        <v>12</v>
+      <c r="B249" s="6">
+        <v>90</v>
       </c>
       <c r="C249" s="1">
         <v>180</v>
@@ -7196,8 +7190,8 @@
       <c r="A250" t="s">
         <v>11</v>
       </c>
-      <c r="B250" s="6" t="s">
-        <v>12</v>
+      <c r="B250" s="6">
+        <v>90</v>
       </c>
       <c r="C250" s="1">
         <v>180</v>
@@ -7222,8 +7216,8 @@
       <c r="A251" t="s">
         <v>11</v>
       </c>
-      <c r="B251" s="6" t="s">
-        <v>12</v>
+      <c r="B251" s="6">
+        <v>90</v>
       </c>
       <c r="C251" s="1">
         <v>180</v>
@@ -7248,8 +7242,8 @@
       <c r="A252" t="s">
         <v>11</v>
       </c>
-      <c r="B252" s="6" t="s">
-        <v>12</v>
+      <c r="B252" s="6">
+        <v>90</v>
       </c>
       <c r="C252" s="1">
         <v>180</v>
@@ -7274,8 +7268,8 @@
       <c r="A253" t="s">
         <v>11</v>
       </c>
-      <c r="B253" s="6" t="s">
-        <v>12</v>
+      <c r="B253" s="6">
+        <v>90</v>
       </c>
       <c r="C253" s="1">
         <v>180</v>
@@ -7300,8 +7294,8 @@
       <c r="A254" t="s">
         <v>11</v>
       </c>
-      <c r="B254" s="6" t="s">
-        <v>12</v>
+      <c r="B254" s="6">
+        <v>90</v>
       </c>
       <c r="C254" s="1">
         <v>180</v>
@@ -7326,8 +7320,8 @@
       <c r="A255" t="s">
         <v>11</v>
       </c>
-      <c r="B255" s="6" t="s">
-        <v>12</v>
+      <c r="B255" s="6">
+        <v>90</v>
       </c>
       <c r="C255" s="1">
         <v>180</v>
@@ -7352,8 +7346,8 @@
       <c r="A256" t="s">
         <v>11</v>
       </c>
-      <c r="B256" s="6" t="s">
-        <v>12</v>
+      <c r="B256" s="6">
+        <v>90</v>
       </c>
       <c r="C256" s="1">
         <v>180</v>
@@ -7378,8 +7372,8 @@
       <c r="A257" t="s">
         <v>11</v>
       </c>
-      <c r="B257" s="6" t="s">
-        <v>12</v>
+      <c r="B257" s="6">
+        <v>90</v>
       </c>
       <c r="C257" s="1">
         <v>180</v>
@@ -7404,8 +7398,8 @@
       <c r="A258" t="s">
         <v>11</v>
       </c>
-      <c r="B258" s="6" t="s">
-        <v>12</v>
+      <c r="B258" s="6">
+        <v>90</v>
       </c>
       <c r="C258" s="1">
         <v>180</v>
@@ -7430,8 +7424,8 @@
       <c r="A259" t="s">
         <v>11</v>
       </c>
-      <c r="B259" s="6" t="s">
-        <v>12</v>
+      <c r="B259" s="6">
+        <v>90</v>
       </c>
       <c r="C259" s="1">
         <v>180</v>
@@ -7456,8 +7450,8 @@
       <c r="A260" t="s">
         <v>11</v>
       </c>
-      <c r="B260" s="6" t="s">
-        <v>12</v>
+      <c r="B260" s="6">
+        <v>90</v>
       </c>
       <c r="C260" s="1">
         <v>180</v>
@@ -7482,8 +7476,8 @@
       <c r="A261" t="s">
         <v>11</v>
       </c>
-      <c r="B261" s="6" t="s">
-        <v>12</v>
+      <c r="B261" s="6">
+        <v>90</v>
       </c>
       <c r="C261" s="1">
         <v>180</v>
@@ -7508,8 +7502,8 @@
       <c r="A262" t="s">
         <v>11</v>
       </c>
-      <c r="B262" s="6" t="s">
-        <v>12</v>
+      <c r="B262" s="6">
+        <v>90</v>
       </c>
       <c r="C262" s="1">
         <v>180</v>
@@ -7534,8 +7528,8 @@
       <c r="A263" t="s">
         <v>11</v>
       </c>
-      <c r="B263" s="6" t="s">
-        <v>12</v>
+      <c r="B263" s="6">
+        <v>90</v>
       </c>
       <c r="C263" s="1">
         <v>180</v>
@@ -7560,8 +7554,8 @@
       <c r="A264" t="s">
         <v>11</v>
       </c>
-      <c r="B264" s="6" t="s">
-        <v>12</v>
+      <c r="B264" s="6">
+        <v>90</v>
       </c>
       <c r="C264" s="1">
         <v>180</v>
@@ -7586,8 +7580,8 @@
       <c r="A265" t="s">
         <v>11</v>
       </c>
-      <c r="B265" s="6" t="s">
-        <v>12</v>
+      <c r="B265" s="6">
+        <v>90</v>
       </c>
       <c r="C265" s="1">
         <v>180</v>
@@ -7612,8 +7606,8 @@
       <c r="A266" t="s">
         <v>11</v>
       </c>
-      <c r="B266" s="6" t="s">
-        <v>12</v>
+      <c r="B266" s="6">
+        <v>90</v>
       </c>
       <c r="C266" s="1">
         <v>180</v>
@@ -7638,8 +7632,8 @@
       <c r="A267" t="s">
         <v>11</v>
       </c>
-      <c r="B267" s="6" t="s">
-        <v>12</v>
+      <c r="B267" s="6">
+        <v>90</v>
       </c>
       <c r="C267" s="1">
         <v>180</v>
@@ -7664,8 +7658,8 @@
       <c r="A268" t="s">
         <v>11</v>
       </c>
-      <c r="B268" s="6" t="s">
-        <v>12</v>
+      <c r="B268" s="6">
+        <v>90</v>
       </c>
       <c r="C268" s="1">
         <v>180</v>
@@ -7690,8 +7684,8 @@
       <c r="A269" t="s">
         <v>11</v>
       </c>
-      <c r="B269" s="6" t="s">
-        <v>12</v>
+      <c r="B269" s="6">
+        <v>90</v>
       </c>
       <c r="C269" s="1">
         <v>180</v>
@@ -7716,8 +7710,8 @@
       <c r="A270" t="s">
         <v>11</v>
       </c>
-      <c r="B270" s="6" t="s">
-        <v>12</v>
+      <c r="B270" s="6">
+        <v>90</v>
       </c>
       <c r="C270" s="1">
         <v>180</v>
@@ -7742,8 +7736,8 @@
       <c r="A271" t="s">
         <v>11</v>
       </c>
-      <c r="B271" s="6" t="s">
-        <v>12</v>
+      <c r="B271" s="6">
+        <v>90</v>
       </c>
       <c r="C271" s="1">
         <v>180</v>
@@ -7768,8 +7762,8 @@
       <c r="A272" t="s">
         <v>11</v>
       </c>
-      <c r="B272" s="6" t="s">
-        <v>12</v>
+      <c r="B272" s="6">
+        <v>90</v>
       </c>
       <c r="C272" s="1">
         <v>180</v>
@@ -7794,8 +7788,8 @@
       <c r="A273" t="s">
         <v>11</v>
       </c>
-      <c r="B273" s="6" t="s">
-        <v>12</v>
+      <c r="B273" s="6">
+        <v>90</v>
       </c>
       <c r="C273" s="1">
         <v>180</v>
@@ -7820,8 +7814,8 @@
       <c r="A274" t="s">
         <v>11</v>
       </c>
-      <c r="B274" s="6" t="s">
-        <v>12</v>
+      <c r="B274" s="6">
+        <v>90</v>
       </c>
       <c r="C274" s="1">
         <v>180</v>
@@ -7846,8 +7840,8 @@
       <c r="A275" t="s">
         <v>11</v>
       </c>
-      <c r="B275" s="6" t="s">
-        <v>12</v>
+      <c r="B275" s="6">
+        <v>90</v>
       </c>
       <c r="C275" s="1">
         <v>180</v>
@@ -7872,8 +7866,8 @@
       <c r="A276" t="s">
         <v>11</v>
       </c>
-      <c r="B276" s="6" t="s">
-        <v>12</v>
+      <c r="B276" s="6">
+        <v>90</v>
       </c>
       <c r="C276" s="1">
         <v>180</v>
@@ -7898,8 +7892,8 @@
       <c r="A277" t="s">
         <v>11</v>
       </c>
-      <c r="B277" s="6" t="s">
-        <v>12</v>
+      <c r="B277" s="6">
+        <v>90</v>
       </c>
       <c r="C277" s="1">
         <v>180</v>
@@ -7924,8 +7918,8 @@
       <c r="A278" t="s">
         <v>11</v>
       </c>
-      <c r="B278" s="6" t="s">
-        <v>12</v>
+      <c r="B278" s="6">
+        <v>90</v>
       </c>
       <c r="C278" s="1">
         <v>180</v>
@@ -7950,8 +7944,8 @@
       <c r="A279" t="s">
         <v>11</v>
       </c>
-      <c r="B279" s="6" t="s">
-        <v>12</v>
+      <c r="B279" s="6">
+        <v>90</v>
       </c>
       <c r="C279" s="1">
         <v>180</v>
@@ -7976,8 +7970,8 @@
       <c r="A280" t="s">
         <v>11</v>
       </c>
-      <c r="B280" s="6" t="s">
-        <v>12</v>
+      <c r="B280" s="6">
+        <v>90</v>
       </c>
       <c r="C280" s="1">
         <v>180</v>
@@ -8002,8 +7996,8 @@
       <c r="A281" t="s">
         <v>11</v>
       </c>
-      <c r="B281" s="6" t="s">
-        <v>12</v>
+      <c r="B281" s="6">
+        <v>90</v>
       </c>
       <c r="C281" s="1">
         <v>180</v>
@@ -8028,8 +8022,8 @@
       <c r="A282" t="s">
         <v>11</v>
       </c>
-      <c r="B282" s="6" t="s">
-        <v>12</v>
+      <c r="B282" s="6">
+        <v>90</v>
       </c>
       <c r="C282" s="1">
         <v>180</v>
@@ -8054,8 +8048,8 @@
       <c r="A283" t="s">
         <v>11</v>
       </c>
-      <c r="B283" s="6" t="s">
-        <v>12</v>
+      <c r="B283" s="6">
+        <v>90</v>
       </c>
       <c r="C283" s="1">
         <v>180</v>
@@ -8080,8 +8074,8 @@
       <c r="A284" t="s">
         <v>11</v>
       </c>
-      <c r="B284" s="6" t="s">
-        <v>12</v>
+      <c r="B284" s="6">
+        <v>90</v>
       </c>
       <c r="C284" s="1">
         <v>180</v>
@@ -8106,8 +8100,8 @@
       <c r="A285" t="s">
         <v>11</v>
       </c>
-      <c r="B285" s="6" t="s">
-        <v>12</v>
+      <c r="B285" s="6">
+        <v>90</v>
       </c>
       <c r="C285" s="1">
         <v>180</v>
@@ -8132,8 +8126,8 @@
       <c r="A286" t="s">
         <v>11</v>
       </c>
-      <c r="B286" s="6" t="s">
-        <v>12</v>
+      <c r="B286" s="6">
+        <v>90</v>
       </c>
       <c r="C286" s="1">
         <v>180</v>
@@ -8158,8 +8152,8 @@
       <c r="A287" t="s">
         <v>11</v>
       </c>
-      <c r="B287" s="6" t="s">
-        <v>12</v>
+      <c r="B287" s="6">
+        <v>90</v>
       </c>
       <c r="C287" s="1">
         <v>180</v>
@@ -8184,8 +8178,8 @@
       <c r="A288" t="s">
         <v>11</v>
       </c>
-      <c r="B288" s="6" t="s">
-        <v>12</v>
+      <c r="B288" s="6">
+        <v>90</v>
       </c>
       <c r="C288" s="1">
         <v>180</v>
@@ -8210,8 +8204,8 @@
       <c r="A289" t="s">
         <v>11</v>
       </c>
-      <c r="B289" s="6" t="s">
-        <v>12</v>
+      <c r="B289" s="6">
+        <v>90</v>
       </c>
       <c r="C289" s="1">
         <v>180</v>
@@ -8236,8 +8230,8 @@
       <c r="A290" t="s">
         <v>11</v>
       </c>
-      <c r="B290" s="6" t="s">
-        <v>12</v>
+      <c r="B290" s="6">
+        <v>90</v>
       </c>
       <c r="C290" s="1">
         <v>180</v>
@@ -8262,8 +8256,8 @@
       <c r="A291" t="s">
         <v>11</v>
       </c>
-      <c r="B291" s="6" t="s">
-        <v>12</v>
+      <c r="B291" s="6">
+        <v>90</v>
       </c>
       <c r="C291" s="1">
         <v>180</v>
@@ -8288,8 +8282,8 @@
       <c r="A292" t="s">
         <v>11</v>
       </c>
-      <c r="B292" s="6" t="s">
-        <v>12</v>
+      <c r="B292" s="6">
+        <v>90</v>
       </c>
       <c r="C292" s="1">
         <v>180</v>
@@ -8314,8 +8308,8 @@
       <c r="A293" t="s">
         <v>11</v>
       </c>
-      <c r="B293" s="6" t="s">
-        <v>12</v>
+      <c r="B293" s="6">
+        <v>90</v>
       </c>
       <c r="C293" s="1">
         <v>180</v>
@@ -8340,8 +8334,8 @@
       <c r="A294" t="s">
         <v>11</v>
       </c>
-      <c r="B294" s="6" t="s">
-        <v>12</v>
+      <c r="B294" s="6">
+        <v>90</v>
       </c>
       <c r="C294" s="1">
         <v>180</v>
@@ -8366,8 +8360,8 @@
       <c r="A295" t="s">
         <v>11</v>
       </c>
-      <c r="B295" s="6" t="s">
-        <v>12</v>
+      <c r="B295" s="6">
+        <v>90</v>
       </c>
       <c r="C295" s="1">
         <v>180</v>
@@ -8392,8 +8386,8 @@
       <c r="A296" t="s">
         <v>11</v>
       </c>
-      <c r="B296" s="6" t="s">
-        <v>12</v>
+      <c r="B296" s="6">
+        <v>90</v>
       </c>
       <c r="C296" s="1">
         <v>180</v>
@@ -8418,8 +8412,8 @@
       <c r="A297" t="s">
         <v>11</v>
       </c>
-      <c r="B297" s="6" t="s">
-        <v>12</v>
+      <c r="B297" s="6">
+        <v>90</v>
       </c>
       <c r="C297" s="1">
         <v>180</v>
@@ -8444,8 +8438,8 @@
       <c r="A298" t="s">
         <v>11</v>
       </c>
-      <c r="B298" s="6" t="s">
-        <v>12</v>
+      <c r="B298" s="6">
+        <v>90</v>
       </c>
       <c r="C298" s="1">
         <v>180</v>
@@ -8470,8 +8464,8 @@
       <c r="A299" t="s">
         <v>11</v>
       </c>
-      <c r="B299" s="6" t="s">
-        <v>12</v>
+      <c r="B299" s="6">
+        <v>90</v>
       </c>
       <c r="C299" s="1">
         <v>180</v>
@@ -8496,8 +8490,8 @@
       <c r="A300" t="s">
         <v>11</v>
       </c>
-      <c r="B300" s="6" t="s">
-        <v>12</v>
+      <c r="B300" s="6">
+        <v>90</v>
       </c>
       <c r="C300" s="1">
         <v>180</v>
@@ -8522,8 +8516,8 @@
       <c r="A301" t="s">
         <v>11</v>
       </c>
-      <c r="B301" s="6" t="s">
-        <v>12</v>
+      <c r="B301" s="6">
+        <v>90</v>
       </c>
       <c r="C301" s="1">
         <v>180</v>
@@ -8548,8 +8542,8 @@
       <c r="A302" t="s">
         <v>11</v>
       </c>
-      <c r="B302" s="6" t="s">
-        <v>12</v>
+      <c r="B302" s="6">
+        <v>90</v>
       </c>
       <c r="C302" s="1">
         <v>180</v>
@@ -8574,8 +8568,8 @@
       <c r="A303" t="s">
         <v>11</v>
       </c>
-      <c r="B303" s="6" t="s">
-        <v>12</v>
+      <c r="B303" s="6">
+        <v>90</v>
       </c>
       <c r="C303" s="1">
         <v>180</v>
@@ -8600,8 +8594,8 @@
       <c r="A304" t="s">
         <v>11</v>
       </c>
-      <c r="B304" s="6" t="s">
-        <v>12</v>
+      <c r="B304" s="6">
+        <v>90</v>
       </c>
       <c r="C304" s="1">
         <v>180</v>
@@ -8626,8 +8620,8 @@
       <c r="A305" t="s">
         <v>11</v>
       </c>
-      <c r="B305" s="6" t="s">
-        <v>12</v>
+      <c r="B305" s="6">
+        <v>90</v>
       </c>
       <c r="C305" s="1">
         <v>180</v>
@@ -8652,8 +8646,8 @@
       <c r="A306" t="s">
         <v>11</v>
       </c>
-      <c r="B306" s="6" t="s">
-        <v>12</v>
+      <c r="B306" s="6">
+        <v>90</v>
       </c>
       <c r="C306" s="1">
         <v>180</v>
@@ -8678,8 +8672,8 @@
       <c r="A307" t="s">
         <v>11</v>
       </c>
-      <c r="B307" s="6" t="s">
-        <v>12</v>
+      <c r="B307" s="6">
+        <v>90</v>
       </c>
       <c r="C307" s="1">
         <v>180</v>
@@ -8704,8 +8698,8 @@
       <c r="A308" t="s">
         <v>11</v>
       </c>
-      <c r="B308" s="6" t="s">
-        <v>12</v>
+      <c r="B308" s="6">
+        <v>90</v>
       </c>
       <c r="C308" s="1">
         <v>180</v>
@@ -8730,8 +8724,8 @@
       <c r="A309" t="s">
         <v>11</v>
       </c>
-      <c r="B309" s="6" t="s">
-        <v>12</v>
+      <c r="B309" s="6">
+        <v>90</v>
       </c>
       <c r="C309" s="1">
         <v>180</v>
@@ -8756,8 +8750,8 @@
       <c r="A310" t="s">
         <v>11</v>
       </c>
-      <c r="B310" s="6" t="s">
-        <v>12</v>
+      <c r="B310" s="6">
+        <v>90</v>
       </c>
       <c r="C310" s="1">
         <v>180</v>
@@ -8782,8 +8776,8 @@
       <c r="A311" t="s">
         <v>11</v>
       </c>
-      <c r="B311" s="6" t="s">
-        <v>12</v>
+      <c r="B311" s="6">
+        <v>90</v>
       </c>
       <c r="C311" s="1">
         <v>180</v>
@@ -8808,8 +8802,8 @@
       <c r="A312" t="s">
         <v>11</v>
       </c>
-      <c r="B312" s="6" t="s">
-        <v>12</v>
+      <c r="B312" s="6">
+        <v>90</v>
       </c>
       <c r="C312" s="1">
         <v>180</v>
@@ -8834,8 +8828,8 @@
       <c r="A313" t="s">
         <v>11</v>
       </c>
-      <c r="B313" s="6" t="s">
-        <v>12</v>
+      <c r="B313" s="6">
+        <v>90</v>
       </c>
       <c r="C313" s="1">
         <v>180</v>
@@ -8860,8 +8854,8 @@
       <c r="A314" t="s">
         <v>11</v>
       </c>
-      <c r="B314" s="13" t="s">
-        <v>13</v>
+      <c r="B314" s="13">
+        <v>45</v>
       </c>
       <c r="C314" s="14">
         <v>180</v>
@@ -8886,8 +8880,8 @@
       <c r="A315" t="s">
         <v>11</v>
       </c>
-      <c r="B315" s="6" t="s">
-        <v>13</v>
+      <c r="B315" s="6">
+        <v>45</v>
       </c>
       <c r="C315" s="1">
         <v>180</v>
@@ -8912,8 +8906,8 @@
       <c r="A316" t="s">
         <v>11</v>
       </c>
-      <c r="B316" s="6" t="s">
-        <v>13</v>
+      <c r="B316" s="6">
+        <v>45</v>
       </c>
       <c r="C316" s="1">
         <v>180</v>
@@ -8938,8 +8932,8 @@
       <c r="A317" t="s">
         <v>11</v>
       </c>
-      <c r="B317" s="6" t="s">
-        <v>13</v>
+      <c r="B317" s="6">
+        <v>45</v>
       </c>
       <c r="C317" s="1">
         <v>180</v>
@@ -8964,8 +8958,8 @@
       <c r="A318" t="s">
         <v>11</v>
       </c>
-      <c r="B318" s="6" t="s">
-        <v>13</v>
+      <c r="B318" s="6">
+        <v>45</v>
       </c>
       <c r="C318" s="1">
         <v>180</v>
@@ -8990,8 +8984,8 @@
       <c r="A319" t="s">
         <v>11</v>
       </c>
-      <c r="B319" s="6" t="s">
-        <v>13</v>
+      <c r="B319" s="6">
+        <v>45</v>
       </c>
       <c r="C319" s="1">
         <v>180</v>
@@ -9016,8 +9010,8 @@
       <c r="A320" t="s">
         <v>11</v>
       </c>
-      <c r="B320" s="6" t="s">
-        <v>13</v>
+      <c r="B320" s="6">
+        <v>45</v>
       </c>
       <c r="C320" s="1">
         <v>180</v>
@@ -9042,8 +9036,8 @@
       <c r="A321" t="s">
         <v>11</v>
       </c>
-      <c r="B321" s="6" t="s">
-        <v>13</v>
+      <c r="B321" s="6">
+        <v>45</v>
       </c>
       <c r="C321" s="1">
         <v>180</v>
@@ -9068,8 +9062,8 @@
       <c r="A322" t="s">
         <v>11</v>
       </c>
-      <c r="B322" s="6" t="s">
-        <v>13</v>
+      <c r="B322" s="6">
+        <v>45</v>
       </c>
       <c r="C322" s="1">
         <v>180</v>
@@ -9094,8 +9088,8 @@
       <c r="A323" t="s">
         <v>11</v>
       </c>
-      <c r="B323" s="6" t="s">
-        <v>13</v>
+      <c r="B323" s="6">
+        <v>45</v>
       </c>
       <c r="C323" s="1">
         <v>180</v>
@@ -9120,8 +9114,8 @@
       <c r="A324" t="s">
         <v>11</v>
       </c>
-      <c r="B324" s="6" t="s">
-        <v>13</v>
+      <c r="B324" s="6">
+        <v>45</v>
       </c>
       <c r="C324" s="1">
         <v>180</v>
@@ -9146,8 +9140,8 @@
       <c r="A325" t="s">
         <v>11</v>
       </c>
-      <c r="B325" s="6" t="s">
-        <v>13</v>
+      <c r="B325" s="6">
+        <v>45</v>
       </c>
       <c r="C325" s="1">
         <v>180</v>
@@ -9172,8 +9166,8 @@
       <c r="A326" t="s">
         <v>11</v>
       </c>
-      <c r="B326" s="6" t="s">
-        <v>13</v>
+      <c r="B326" s="6">
+        <v>45</v>
       </c>
       <c r="C326" s="1">
         <v>180</v>
@@ -9198,8 +9192,8 @@
       <c r="A327" t="s">
         <v>11</v>
       </c>
-      <c r="B327" s="6" t="s">
-        <v>13</v>
+      <c r="B327" s="6">
+        <v>45</v>
       </c>
       <c r="C327" s="1">
         <v>180</v>
@@ -9224,8 +9218,8 @@
       <c r="A328" t="s">
         <v>11</v>
       </c>
-      <c r="B328" s="6" t="s">
-        <v>13</v>
+      <c r="B328" s="6">
+        <v>45</v>
       </c>
       <c r="C328" s="1">
         <v>180</v>
@@ -9250,8 +9244,8 @@
       <c r="A329" t="s">
         <v>11</v>
       </c>
-      <c r="B329" s="6" t="s">
-        <v>13</v>
+      <c r="B329" s="6">
+        <v>45</v>
       </c>
       <c r="C329" s="1">
         <v>180</v>
@@ -9276,8 +9270,8 @@
       <c r="A330" t="s">
         <v>11</v>
       </c>
-      <c r="B330" s="6" t="s">
-        <v>13</v>
+      <c r="B330" s="6">
+        <v>45</v>
       </c>
       <c r="C330" s="1">
         <v>180</v>
@@ -9302,8 +9296,8 @@
       <c r="A331" t="s">
         <v>11</v>
       </c>
-      <c r="B331" s="6" t="s">
-        <v>13</v>
+      <c r="B331" s="6">
+        <v>45</v>
       </c>
       <c r="C331" s="1">
         <v>180</v>
@@ -9328,8 +9322,8 @@
       <c r="A332" t="s">
         <v>11</v>
       </c>
-      <c r="B332" s="6" t="s">
-        <v>13</v>
+      <c r="B332" s="6">
+        <v>45</v>
       </c>
       <c r="C332" s="1">
         <v>180</v>
@@ -9354,8 +9348,8 @@
       <c r="A333" t="s">
         <v>11</v>
       </c>
-      <c r="B333" s="6" t="s">
-        <v>13</v>
+      <c r="B333" s="6">
+        <v>45</v>
       </c>
       <c r="C333" s="1">
         <v>180</v>
@@ -9380,8 +9374,8 @@
       <c r="A334" t="s">
         <v>11</v>
       </c>
-      <c r="B334" s="6" t="s">
-        <v>13</v>
+      <c r="B334" s="6">
+        <v>45</v>
       </c>
       <c r="C334" s="1">
         <v>180</v>
@@ -9406,8 +9400,8 @@
       <c r="A335" t="s">
         <v>11</v>
       </c>
-      <c r="B335" s="6" t="s">
-        <v>13</v>
+      <c r="B335" s="6">
+        <v>45</v>
       </c>
       <c r="C335" s="1">
         <v>180</v>
@@ -9432,8 +9426,8 @@
       <c r="A336" t="s">
         <v>11</v>
       </c>
-      <c r="B336" s="6" t="s">
-        <v>13</v>
+      <c r="B336" s="6">
+        <v>45</v>
       </c>
       <c r="C336" s="1">
         <v>180</v>
@@ -9458,8 +9452,8 @@
       <c r="A337" t="s">
         <v>11</v>
       </c>
-      <c r="B337" s="6" t="s">
-        <v>13</v>
+      <c r="B337" s="6">
+        <v>45</v>
       </c>
       <c r="C337" s="1">
         <v>180</v>
@@ -9484,8 +9478,8 @@
       <c r="A338" t="s">
         <v>11</v>
       </c>
-      <c r="B338" s="6" t="s">
-        <v>13</v>
+      <c r="B338" s="6">
+        <v>45</v>
       </c>
       <c r="C338" s="1">
         <v>180</v>
@@ -9510,8 +9504,8 @@
       <c r="A339" t="s">
         <v>11</v>
       </c>
-      <c r="B339" s="6" t="s">
-        <v>13</v>
+      <c r="B339" s="6">
+        <v>45</v>
       </c>
       <c r="C339" s="1">
         <v>180</v>
@@ -9536,8 +9530,8 @@
       <c r="A340" t="s">
         <v>11</v>
       </c>
-      <c r="B340" s="6" t="s">
-        <v>13</v>
+      <c r="B340" s="6">
+        <v>45</v>
       </c>
       <c r="C340" s="1">
         <v>180</v>
@@ -9562,8 +9556,8 @@
       <c r="A341" t="s">
         <v>11</v>
       </c>
-      <c r="B341" s="6" t="s">
-        <v>13</v>
+      <c r="B341" s="6">
+        <v>45</v>
       </c>
       <c r="C341" s="1">
         <v>180</v>
@@ -9588,8 +9582,8 @@
       <c r="A342" t="s">
         <v>11</v>
       </c>
-      <c r="B342" s="6" t="s">
-        <v>13</v>
+      <c r="B342" s="6">
+        <v>45</v>
       </c>
       <c r="C342" s="1">
         <v>180</v>
@@ -9614,8 +9608,8 @@
       <c r="A343" t="s">
         <v>11</v>
       </c>
-      <c r="B343" s="6" t="s">
-        <v>13</v>
+      <c r="B343" s="6">
+        <v>45</v>
       </c>
       <c r="C343" s="1">
         <v>180</v>
@@ -9640,8 +9634,8 @@
       <c r="A344" t="s">
         <v>11</v>
       </c>
-      <c r="B344" s="6" t="s">
-        <v>13</v>
+      <c r="B344" s="6">
+        <v>45</v>
       </c>
       <c r="C344" s="1">
         <v>180</v>
@@ -9666,8 +9660,8 @@
       <c r="A345" t="s">
         <v>11</v>
       </c>
-      <c r="B345" s="6" t="s">
-        <v>13</v>
+      <c r="B345" s="6">
+        <v>45</v>
       </c>
       <c r="C345" s="1">
         <v>180</v>
@@ -9692,8 +9686,8 @@
       <c r="A346" t="s">
         <v>11</v>
       </c>
-      <c r="B346" s="6" t="s">
-        <v>13</v>
+      <c r="B346" s="6">
+        <v>45</v>
       </c>
       <c r="C346" s="1">
         <v>180</v>
@@ -9718,8 +9712,8 @@
       <c r="A347" t="s">
         <v>11</v>
       </c>
-      <c r="B347" s="6" t="s">
-        <v>13</v>
+      <c r="B347" s="6">
+        <v>45</v>
       </c>
       <c r="C347" s="1">
         <v>180</v>
@@ -9744,8 +9738,8 @@
       <c r="A348" t="s">
         <v>11</v>
       </c>
-      <c r="B348" s="6" t="s">
-        <v>13</v>
+      <c r="B348" s="6">
+        <v>45</v>
       </c>
       <c r="C348" s="1">
         <v>180</v>
@@ -9770,8 +9764,8 @@
       <c r="A349" t="s">
         <v>11</v>
       </c>
-      <c r="B349" s="6" t="s">
-        <v>13</v>
+      <c r="B349" s="6">
+        <v>45</v>
       </c>
       <c r="C349" s="1">
         <v>180</v>
@@ -9796,8 +9790,8 @@
       <c r="A350" t="s">
         <v>11</v>
       </c>
-      <c r="B350" s="6" t="s">
-        <v>13</v>
+      <c r="B350" s="6">
+        <v>45</v>
       </c>
       <c r="C350" s="1">
         <v>180</v>
@@ -9822,8 +9816,8 @@
       <c r="A351" t="s">
         <v>11</v>
       </c>
-      <c r="B351" s="6" t="s">
-        <v>13</v>
+      <c r="B351" s="6">
+        <v>45</v>
       </c>
       <c r="C351" s="1">
         <v>180</v>
@@ -9848,8 +9842,8 @@
       <c r="A352" t="s">
         <v>11</v>
       </c>
-      <c r="B352" s="6" t="s">
-        <v>13</v>
+      <c r="B352" s="6">
+        <v>45</v>
       </c>
       <c r="C352" s="1">
         <v>180</v>
@@ -9874,8 +9868,8 @@
       <c r="A353" t="s">
         <v>11</v>
       </c>
-      <c r="B353" s="6" t="s">
-        <v>13</v>
+      <c r="B353" s="6">
+        <v>45</v>
       </c>
       <c r="C353" s="1">
         <v>180</v>
@@ -9900,8 +9894,8 @@
       <c r="A354" t="s">
         <v>11</v>
       </c>
-      <c r="B354" s="6" t="s">
-        <v>13</v>
+      <c r="B354" s="6">
+        <v>45</v>
       </c>
       <c r="C354" s="1">
         <v>180</v>
@@ -9926,8 +9920,8 @@
       <c r="A355" t="s">
         <v>11</v>
       </c>
-      <c r="B355" s="6" t="s">
-        <v>13</v>
+      <c r="B355" s="6">
+        <v>45</v>
       </c>
       <c r="C355" s="1">
         <v>180</v>
@@ -9952,8 +9946,8 @@
       <c r="A356" t="s">
         <v>11</v>
       </c>
-      <c r="B356" s="6" t="s">
-        <v>13</v>
+      <c r="B356" s="6">
+        <v>45</v>
       </c>
       <c r="C356" s="1">
         <v>180</v>
@@ -9978,8 +9972,8 @@
       <c r="A357" t="s">
         <v>11</v>
       </c>
-      <c r="B357" s="6" t="s">
-        <v>13</v>
+      <c r="B357" s="6">
+        <v>45</v>
       </c>
       <c r="C357" s="1">
         <v>180</v>
@@ -10004,8 +9998,8 @@
       <c r="A358" t="s">
         <v>11</v>
       </c>
-      <c r="B358" s="6" t="s">
-        <v>13</v>
+      <c r="B358" s="6">
+        <v>45</v>
       </c>
       <c r="C358" s="1">
         <v>180</v>
@@ -10030,8 +10024,8 @@
       <c r="A359" t="s">
         <v>11</v>
       </c>
-      <c r="B359" s="6" t="s">
-        <v>13</v>
+      <c r="B359" s="6">
+        <v>45</v>
       </c>
       <c r="C359" s="1">
         <v>180</v>
@@ -10056,8 +10050,8 @@
       <c r="A360" t="s">
         <v>11</v>
       </c>
-      <c r="B360" s="6" t="s">
-        <v>13</v>
+      <c r="B360" s="6">
+        <v>45</v>
       </c>
       <c r="C360" s="1">
         <v>180</v>
@@ -10082,8 +10076,8 @@
       <c r="A361" t="s">
         <v>11</v>
       </c>
-      <c r="B361" s="6" t="s">
-        <v>13</v>
+      <c r="B361" s="6">
+        <v>45</v>
       </c>
       <c r="C361" s="1">
         <v>180</v>
@@ -10108,8 +10102,8 @@
       <c r="A362" t="s">
         <v>11</v>
       </c>
-      <c r="B362" s="6" t="s">
-        <v>13</v>
+      <c r="B362" s="6">
+        <v>45</v>
       </c>
       <c r="C362" s="1">
         <v>180</v>
@@ -10134,8 +10128,8 @@
       <c r="A363" t="s">
         <v>11</v>
       </c>
-      <c r="B363" s="6" t="s">
-        <v>13</v>
+      <c r="B363" s="6">
+        <v>45</v>
       </c>
       <c r="C363" s="1">
         <v>180</v>
@@ -10160,8 +10154,8 @@
       <c r="A364" t="s">
         <v>11</v>
       </c>
-      <c r="B364" s="6" t="s">
-        <v>13</v>
+      <c r="B364" s="6">
+        <v>45</v>
       </c>
       <c r="C364" s="1">
         <v>180</v>
@@ -10186,8 +10180,8 @@
       <c r="A365" t="s">
         <v>11</v>
       </c>
-      <c r="B365" s="6" t="s">
-        <v>13</v>
+      <c r="B365" s="6">
+        <v>45</v>
       </c>
       <c r="C365" s="1">
         <v>180</v>
@@ -10212,8 +10206,8 @@
       <c r="A366" t="s">
         <v>11</v>
       </c>
-      <c r="B366" s="6" t="s">
-        <v>13</v>
+      <c r="B366" s="6">
+        <v>45</v>
       </c>
       <c r="C366" s="1">
         <v>180</v>
@@ -10238,8 +10232,8 @@
       <c r="A367" t="s">
         <v>11</v>
       </c>
-      <c r="B367" s="6" t="s">
-        <v>13</v>
+      <c r="B367" s="6">
+        <v>45</v>
       </c>
       <c r="C367" s="1">
         <v>180</v>
@@ -10264,8 +10258,8 @@
       <c r="A368" t="s">
         <v>11</v>
       </c>
-      <c r="B368" s="6" t="s">
-        <v>13</v>
+      <c r="B368" s="6">
+        <v>45</v>
       </c>
       <c r="C368" s="1">
         <v>180</v>
@@ -10290,8 +10284,8 @@
       <c r="A369" t="s">
         <v>11</v>
       </c>
-      <c r="B369" s="6" t="s">
-        <v>13</v>
+      <c r="B369" s="6">
+        <v>45</v>
       </c>
       <c r="C369" s="1">
         <v>180</v>
@@ -10316,8 +10310,8 @@
       <c r="A370" t="s">
         <v>11</v>
       </c>
-      <c r="B370" s="6" t="s">
-        <v>13</v>
+      <c r="B370" s="6">
+        <v>45</v>
       </c>
       <c r="C370" s="1">
         <v>180</v>
@@ -10342,8 +10336,8 @@
       <c r="A371" t="s">
         <v>11</v>
       </c>
-      <c r="B371" s="6" t="s">
-        <v>13</v>
+      <c r="B371" s="6">
+        <v>45</v>
       </c>
       <c r="C371" s="1">
         <v>180</v>
@@ -10368,8 +10362,8 @@
       <c r="A372" t="s">
         <v>11</v>
       </c>
-      <c r="B372" s="6" t="s">
-        <v>13</v>
+      <c r="B372" s="6">
+        <v>45</v>
       </c>
       <c r="C372" s="1">
         <v>180</v>
@@ -10394,8 +10388,8 @@
       <c r="A373" t="s">
         <v>11</v>
       </c>
-      <c r="B373" s="6" t="s">
-        <v>13</v>
+      <c r="B373" s="6">
+        <v>45</v>
       </c>
       <c r="C373" s="1">
         <v>180</v>
@@ -10420,8 +10414,8 @@
       <c r="A374" t="s">
         <v>11</v>
       </c>
-      <c r="B374" s="6" t="s">
-        <v>13</v>
+      <c r="B374" s="6">
+        <v>45</v>
       </c>
       <c r="C374" s="1">
         <v>180</v>
@@ -10446,8 +10440,8 @@
       <c r="A375" t="s">
         <v>11</v>
       </c>
-      <c r="B375" s="6" t="s">
-        <v>13</v>
+      <c r="B375" s="6">
+        <v>45</v>
       </c>
       <c r="C375" s="1">
         <v>180</v>
@@ -10472,8 +10466,8 @@
       <c r="A376" t="s">
         <v>11</v>
       </c>
-      <c r="B376" s="6" t="s">
-        <v>13</v>
+      <c r="B376" s="6">
+        <v>45</v>
       </c>
       <c r="C376" s="1">
         <v>180</v>
@@ -10498,8 +10492,8 @@
       <c r="A377" t="s">
         <v>11</v>
       </c>
-      <c r="B377" s="6" t="s">
-        <v>13</v>
+      <c r="B377" s="6">
+        <v>45</v>
       </c>
       <c r="C377" s="1">
         <v>180</v>
@@ -10524,8 +10518,8 @@
       <c r="A378" t="s">
         <v>11</v>
       </c>
-      <c r="B378" s="6" t="s">
-        <v>13</v>
+      <c r="B378" s="6">
+        <v>45</v>
       </c>
       <c r="C378" s="1">
         <v>180</v>
@@ -10550,8 +10544,8 @@
       <c r="A379" t="s">
         <v>11</v>
       </c>
-      <c r="B379" s="6" t="s">
-        <v>13</v>
+      <c r="B379" s="6">
+        <v>45</v>
       </c>
       <c r="C379" s="1">
         <v>180</v>
@@ -10576,8 +10570,8 @@
       <c r="A380" t="s">
         <v>11</v>
       </c>
-      <c r="B380" s="6" t="s">
-        <v>13</v>
+      <c r="B380" s="6">
+        <v>45</v>
       </c>
       <c r="C380" s="1">
         <v>180</v>
@@ -10602,8 +10596,8 @@
       <c r="A381" t="s">
         <v>11</v>
       </c>
-      <c r="B381" s="6" t="s">
-        <v>13</v>
+      <c r="B381" s="6">
+        <v>45</v>
       </c>
       <c r="C381" s="1">
         <v>180</v>
@@ -10628,8 +10622,8 @@
       <c r="A382" t="s">
         <v>11</v>
       </c>
-      <c r="B382" s="6" t="s">
-        <v>13</v>
+      <c r="B382" s="6">
+        <v>45</v>
       </c>
       <c r="C382" s="1">
         <v>180</v>
@@ -10654,8 +10648,8 @@
       <c r="A383" t="s">
         <v>11</v>
       </c>
-      <c r="B383" s="6" t="s">
-        <v>13</v>
+      <c r="B383" s="6">
+        <v>45</v>
       </c>
       <c r="C383" s="1">
         <v>180</v>
@@ -10680,8 +10674,8 @@
       <c r="A384" t="s">
         <v>11</v>
       </c>
-      <c r="B384" s="6" t="s">
-        <v>13</v>
+      <c r="B384" s="6">
+        <v>45</v>
       </c>
       <c r="C384" s="1">
         <v>180</v>
@@ -10706,8 +10700,8 @@
       <c r="A385" t="s">
         <v>11</v>
       </c>
-      <c r="B385" s="6" t="s">
-        <v>13</v>
+      <c r="B385" s="6">
+        <v>45</v>
       </c>
       <c r="C385" s="1">
         <v>180</v>
@@ -10732,8 +10726,8 @@
       <c r="A386" t="s">
         <v>11</v>
       </c>
-      <c r="B386" s="6" t="s">
-        <v>13</v>
+      <c r="B386" s="6">
+        <v>45</v>
       </c>
       <c r="C386" s="1">
         <v>180</v>
@@ -10758,8 +10752,8 @@
       <c r="A387" t="s">
         <v>11</v>
       </c>
-      <c r="B387" s="6" t="s">
-        <v>13</v>
+      <c r="B387" s="6">
+        <v>45</v>
       </c>
       <c r="C387" s="1">
         <v>180</v>
@@ -10784,8 +10778,8 @@
       <c r="A388" t="s">
         <v>11</v>
       </c>
-      <c r="B388" s="6" t="s">
-        <v>13</v>
+      <c r="B388" s="6">
+        <v>45</v>
       </c>
       <c r="C388" s="1">
         <v>180</v>
@@ -10810,8 +10804,8 @@
       <c r="A389" t="s">
         <v>11</v>
       </c>
-      <c r="B389" s="6" t="s">
-        <v>13</v>
+      <c r="B389" s="6">
+        <v>45</v>
       </c>
       <c r="C389" s="1">
         <v>180</v>
@@ -10836,8 +10830,8 @@
       <c r="A390" t="s">
         <v>11</v>
       </c>
-      <c r="B390" s="6" t="s">
-        <v>13</v>
+      <c r="B390" s="6">
+        <v>45</v>
       </c>
       <c r="C390" s="1">
         <v>180</v>
@@ -10862,8 +10856,8 @@
       <c r="A391" t="s">
         <v>11</v>
       </c>
-      <c r="B391" s="6" t="s">
-        <v>13</v>
+      <c r="B391" s="6">
+        <v>45</v>
       </c>
       <c r="C391" s="1">
         <v>180</v>
@@ -10888,8 +10882,8 @@
       <c r="A392" t="s">
         <v>11</v>
       </c>
-      <c r="B392" s="13" t="s">
-        <v>13</v>
+      <c r="B392" s="6">
+        <v>45</v>
       </c>
       <c r="C392" s="1">
         <v>180</v>
@@ -10914,8 +10908,8 @@
       <c r="A393" t="s">
         <v>11</v>
       </c>
-      <c r="B393" s="6" t="s">
-        <v>13</v>
+      <c r="B393" s="6">
+        <v>45</v>
       </c>
       <c r="C393" s="1">
         <v>180</v>
@@ -10940,8 +10934,8 @@
       <c r="A394" t="s">
         <v>11</v>
       </c>
-      <c r="B394" s="6" t="s">
-        <v>13</v>
+      <c r="B394" s="6">
+        <v>45</v>
       </c>
       <c r="C394" s="1">
         <v>180</v>
@@ -10966,8 +10960,8 @@
       <c r="A395" t="s">
         <v>11</v>
       </c>
-      <c r="B395" s="6" t="s">
-        <v>13</v>
+      <c r="B395" s="6">
+        <v>45</v>
       </c>
       <c r="C395" s="1">
         <v>180</v>
@@ -10992,8 +10986,8 @@
       <c r="A396" t="s">
         <v>11</v>
       </c>
-      <c r="B396" s="6" t="s">
-        <v>13</v>
+      <c r="B396" s="6">
+        <v>45</v>
       </c>
       <c r="C396" s="1">
         <v>180</v>
@@ -11018,8 +11012,8 @@
       <c r="A397" t="s">
         <v>11</v>
       </c>
-      <c r="B397" s="6" t="s">
-        <v>13</v>
+      <c r="B397" s="6">
+        <v>45</v>
       </c>
       <c r="C397" s="1">
         <v>180</v>
@@ -11044,8 +11038,8 @@
       <c r="A398" t="s">
         <v>11</v>
       </c>
-      <c r="B398" s="6" t="s">
-        <v>13</v>
+      <c r="B398" s="6">
+        <v>45</v>
       </c>
       <c r="C398" s="1">
         <v>180</v>
@@ -11070,8 +11064,8 @@
       <c r="A399" t="s">
         <v>11</v>
       </c>
-      <c r="B399" s="6" t="s">
-        <v>13</v>
+      <c r="B399" s="6">
+        <v>45</v>
       </c>
       <c r="C399" s="1">
         <v>180</v>
@@ -11096,8 +11090,8 @@
       <c r="A400" t="s">
         <v>11</v>
       </c>
-      <c r="B400" s="6" t="s">
-        <v>13</v>
+      <c r="B400" s="6">
+        <v>45</v>
       </c>
       <c r="C400" s="1">
         <v>180</v>
@@ -11122,8 +11116,8 @@
       <c r="A401" t="s">
         <v>11</v>
       </c>
-      <c r="B401" s="6" t="s">
-        <v>13</v>
+      <c r="B401" s="6">
+        <v>45</v>
       </c>
       <c r="C401" s="1">
         <v>180</v>
@@ -11148,8 +11142,8 @@
       <c r="A402" t="s">
         <v>11</v>
       </c>
-      <c r="B402" s="6" t="s">
-        <v>13</v>
+      <c r="B402" s="6">
+        <v>45</v>
       </c>
       <c r="C402" s="1">
         <v>180</v>
@@ -11174,8 +11168,8 @@
       <c r="A403" t="s">
         <v>11</v>
       </c>
-      <c r="B403" s="6" t="s">
-        <v>13</v>
+      <c r="B403" s="6">
+        <v>45</v>
       </c>
       <c r="C403" s="1">
         <v>180</v>
@@ -11200,8 +11194,8 @@
       <c r="A404" t="s">
         <v>11</v>
       </c>
-      <c r="B404" s="6" t="s">
-        <v>13</v>
+      <c r="B404" s="6">
+        <v>45</v>
       </c>
       <c r="C404" s="1">
         <v>180</v>
@@ -11226,8 +11220,8 @@
       <c r="A405" t="s">
         <v>11</v>
       </c>
-      <c r="B405" s="6" t="s">
-        <v>13</v>
+      <c r="B405" s="6">
+        <v>45</v>
       </c>
       <c r="C405" s="1">
         <v>180</v>
@@ -11252,8 +11246,8 @@
       <c r="A406" t="s">
         <v>11</v>
       </c>
-      <c r="B406" s="6" t="s">
-        <v>13</v>
+      <c r="B406" s="6">
+        <v>45</v>
       </c>
       <c r="C406" s="1">
         <v>180</v>
@@ -11278,8 +11272,8 @@
       <c r="A407" t="s">
         <v>11</v>
       </c>
-      <c r="B407" s="6" t="s">
-        <v>13</v>
+      <c r="B407" s="6">
+        <v>45</v>
       </c>
       <c r="C407" s="1">
         <v>180</v>
@@ -11304,8 +11298,8 @@
       <c r="A408" t="s">
         <v>11</v>
       </c>
-      <c r="B408" s="6" t="s">
-        <v>13</v>
+      <c r="B408" s="6">
+        <v>45</v>
       </c>
       <c r="C408" s="1">
         <v>180</v>
@@ -11330,8 +11324,8 @@
       <c r="A409" t="s">
         <v>11</v>
       </c>
-      <c r="B409" s="6" t="s">
-        <v>13</v>
+      <c r="B409" s="6">
+        <v>45</v>
       </c>
       <c r="C409" s="1">
         <v>180</v>
@@ -11356,8 +11350,8 @@
       <c r="A410" t="s">
         <v>11</v>
       </c>
-      <c r="B410" s="6" t="s">
-        <v>13</v>
+      <c r="B410" s="6">
+        <v>45</v>
       </c>
       <c r="C410" s="1">
         <v>180</v>
@@ -11382,8 +11376,8 @@
       <c r="A411" t="s">
         <v>11</v>
       </c>
-      <c r="B411" s="6" t="s">
-        <v>13</v>
+      <c r="B411" s="6">
+        <v>45</v>
       </c>
       <c r="C411" s="1">
         <v>180</v>
@@ -11408,8 +11402,8 @@
       <c r="A412" t="s">
         <v>11</v>
       </c>
-      <c r="B412" s="6" t="s">
-        <v>13</v>
+      <c r="B412" s="6">
+        <v>45</v>
       </c>
       <c r="C412" s="1">
         <v>180</v>
@@ -11434,8 +11428,8 @@
       <c r="A413" t="s">
         <v>11</v>
       </c>
-      <c r="B413" s="6" t="s">
-        <v>13</v>
+      <c r="B413" s="6">
+        <v>45</v>
       </c>
       <c r="C413" s="1">
         <v>180</v>
@@ -11460,8 +11454,8 @@
       <c r="A414" t="s">
         <v>11</v>
       </c>
-      <c r="B414" s="6" t="s">
-        <v>13</v>
+      <c r="B414" s="6">
+        <v>45</v>
       </c>
       <c r="C414" s="1">
         <v>180</v>
@@ -11486,8 +11480,8 @@
       <c r="A415" t="s">
         <v>11</v>
       </c>
-      <c r="B415" s="6" t="s">
-        <v>13</v>
+      <c r="B415" s="6">
+        <v>45</v>
       </c>
       <c r="C415" s="1">
         <v>180</v>
@@ -11512,8 +11506,8 @@
       <c r="A416" t="s">
         <v>11</v>
       </c>
-      <c r="B416" s="6" t="s">
-        <v>13</v>
+      <c r="B416" s="6">
+        <v>45</v>
       </c>
       <c r="C416" s="1">
         <v>180</v>
@@ -11538,8 +11532,8 @@
       <c r="A417" t="s">
         <v>11</v>
       </c>
-      <c r="B417" s="6" t="s">
-        <v>13</v>
+      <c r="B417" s="6">
+        <v>45</v>
       </c>
       <c r="C417" s="1">
         <v>180</v>
@@ -11564,8 +11558,8 @@
       <c r="A418" t="s">
         <v>11</v>
       </c>
-      <c r="B418" s="6" t="s">
-        <v>13</v>
+      <c r="B418" s="6">
+        <v>45</v>
       </c>
       <c r="C418" s="1">
         <v>180</v>
@@ -11590,8 +11584,8 @@
       <c r="A419" t="s">
         <v>11</v>
       </c>
-      <c r="B419" s="6" t="s">
-        <v>13</v>
+      <c r="B419" s="6">
+        <v>45</v>
       </c>
       <c r="C419" s="1">
         <v>180</v>
@@ -11616,8 +11610,8 @@
       <c r="A420" t="s">
         <v>11</v>
       </c>
-      <c r="B420" s="6" t="s">
-        <v>13</v>
+      <c r="B420" s="6">
+        <v>45</v>
       </c>
       <c r="C420" s="1">
         <v>180</v>
@@ -11642,8 +11636,8 @@
       <c r="A421" t="s">
         <v>11</v>
       </c>
-      <c r="B421" s="6" t="s">
-        <v>13</v>
+      <c r="B421" s="6">
+        <v>45</v>
       </c>
       <c r="C421" s="1">
         <v>180</v>
@@ -11668,8 +11662,8 @@
       <c r="A422" t="s">
         <v>11</v>
       </c>
-      <c r="B422" s="6" t="s">
-        <v>13</v>
+      <c r="B422" s="6">
+        <v>45</v>
       </c>
       <c r="C422" s="1">
         <v>180</v>
@@ -11694,8 +11688,8 @@
       <c r="A423" t="s">
         <v>11</v>
       </c>
-      <c r="B423" s="6" t="s">
-        <v>13</v>
+      <c r="B423" s="6">
+        <v>45</v>
       </c>
       <c r="C423" s="1">
         <v>180</v>
@@ -11720,8 +11714,8 @@
       <c r="A424" t="s">
         <v>11</v>
       </c>
-      <c r="B424" s="6" t="s">
-        <v>13</v>
+      <c r="B424" s="6">
+        <v>45</v>
       </c>
       <c r="C424" s="1">
         <v>180</v>
@@ -11746,8 +11740,8 @@
       <c r="A425" t="s">
         <v>11</v>
       </c>
-      <c r="B425" s="6" t="s">
-        <v>13</v>
+      <c r="B425" s="6">
+        <v>45</v>
       </c>
       <c r="C425" s="1">
         <v>180</v>
@@ -11772,8 +11766,8 @@
       <c r="A426" t="s">
         <v>11</v>
       </c>
-      <c r="B426" s="6" t="s">
-        <v>13</v>
+      <c r="B426" s="6">
+        <v>45</v>
       </c>
       <c r="C426" s="1">
         <v>180</v>
@@ -11798,8 +11792,8 @@
       <c r="A427" t="s">
         <v>11</v>
       </c>
-      <c r="B427" s="6" t="s">
-        <v>13</v>
+      <c r="B427" s="6">
+        <v>45</v>
       </c>
       <c r="C427" s="1">
         <v>180</v>
@@ -11824,8 +11818,8 @@
       <c r="A428" t="s">
         <v>11</v>
       </c>
-      <c r="B428" s="6" t="s">
-        <v>13</v>
+      <c r="B428" s="6">
+        <v>45</v>
       </c>
       <c r="C428" s="1">
         <v>180</v>
@@ -11850,8 +11844,8 @@
       <c r="A429" t="s">
         <v>11</v>
       </c>
-      <c r="B429" s="6" t="s">
-        <v>13</v>
+      <c r="B429" s="6">
+        <v>45</v>
       </c>
       <c r="C429" s="1">
         <v>180</v>
@@ -11876,8 +11870,8 @@
       <c r="A430" t="s">
         <v>11</v>
       </c>
-      <c r="B430" s="6" t="s">
-        <v>13</v>
+      <c r="B430" s="6">
+        <v>45</v>
       </c>
       <c r="C430" s="1">
         <v>180</v>
@@ -11902,8 +11896,8 @@
       <c r="A431" t="s">
         <v>11</v>
       </c>
-      <c r="B431" s="6" t="s">
-        <v>13</v>
+      <c r="B431" s="6">
+        <v>45</v>
       </c>
       <c r="C431" s="1">
         <v>180</v>
@@ -11928,8 +11922,8 @@
       <c r="A432" t="s">
         <v>11</v>
       </c>
-      <c r="B432" s="6" t="s">
-        <v>13</v>
+      <c r="B432" s="6">
+        <v>45</v>
       </c>
       <c r="C432" s="1">
         <v>180</v>
@@ -11954,8 +11948,8 @@
       <c r="A433" t="s">
         <v>11</v>
       </c>
-      <c r="B433" s="6" t="s">
-        <v>13</v>
+      <c r="B433" s="6">
+        <v>45</v>
       </c>
       <c r="C433" s="1">
         <v>180</v>
@@ -11980,8 +11974,8 @@
       <c r="A434" t="s">
         <v>11</v>
       </c>
-      <c r="B434" s="6" t="s">
-        <v>13</v>
+      <c r="B434" s="6">
+        <v>45</v>
       </c>
       <c r="C434" s="1">
         <v>180</v>
@@ -12006,8 +12000,8 @@
       <c r="A435" t="s">
         <v>11</v>
       </c>
-      <c r="B435" s="6" t="s">
-        <v>13</v>
+      <c r="B435" s="6">
+        <v>45</v>
       </c>
       <c r="C435" s="1">
         <v>180</v>
@@ -12032,8 +12026,8 @@
       <c r="A436" t="s">
         <v>11</v>
       </c>
-      <c r="B436" s="6" t="s">
-        <v>13</v>
+      <c r="B436" s="6">
+        <v>45</v>
       </c>
       <c r="C436" s="1">
         <v>180</v>
@@ -12058,8 +12052,8 @@
       <c r="A437" t="s">
         <v>11</v>
       </c>
-      <c r="B437" s="6" t="s">
-        <v>13</v>
+      <c r="B437" s="6">
+        <v>45</v>
       </c>
       <c r="C437" s="1">
         <v>180</v>
@@ -12084,8 +12078,8 @@
       <c r="A438" t="s">
         <v>11</v>
       </c>
-      <c r="B438" s="6" t="s">
-        <v>13</v>
+      <c r="B438" s="6">
+        <v>45</v>
       </c>
       <c r="C438" s="1">
         <v>180</v>
@@ -12110,8 +12104,8 @@
       <c r="A439" t="s">
         <v>11</v>
       </c>
-      <c r="B439" s="6" t="s">
-        <v>13</v>
+      <c r="B439" s="6">
+        <v>45</v>
       </c>
       <c r="C439" s="1">
         <v>180</v>
@@ -12136,8 +12130,8 @@
       <c r="A440" t="s">
         <v>11</v>
       </c>
-      <c r="B440" s="6" t="s">
-        <v>13</v>
+      <c r="B440" s="6">
+        <v>45</v>
       </c>
       <c r="C440" s="1">
         <v>180</v>
@@ -12162,8 +12156,8 @@
       <c r="A441" t="s">
         <v>11</v>
       </c>
-      <c r="B441" s="6" t="s">
-        <v>13</v>
+      <c r="B441" s="6">
+        <v>45</v>
       </c>
       <c r="C441" s="1">
         <v>180</v>
@@ -12188,8 +12182,8 @@
       <c r="A442" t="s">
         <v>11</v>
       </c>
-      <c r="B442" s="6" t="s">
-        <v>13</v>
+      <c r="B442" s="6">
+        <v>45</v>
       </c>
       <c r="C442" s="1">
         <v>180</v>
@@ -12214,8 +12208,8 @@
       <c r="A443" t="s">
         <v>11</v>
       </c>
-      <c r="B443" s="6" t="s">
-        <v>13</v>
+      <c r="B443" s="6">
+        <v>45</v>
       </c>
       <c r="C443" s="1">
         <v>180</v>
@@ -12240,8 +12234,8 @@
       <c r="A444" t="s">
         <v>11</v>
       </c>
-      <c r="B444" s="6" t="s">
-        <v>13</v>
+      <c r="B444" s="6">
+        <v>45</v>
       </c>
       <c r="C444" s="1">
         <v>180</v>
@@ -12266,8 +12260,8 @@
       <c r="A445" t="s">
         <v>11</v>
       </c>
-      <c r="B445" s="6" t="s">
-        <v>13</v>
+      <c r="B445" s="6">
+        <v>45</v>
       </c>
       <c r="C445" s="1">
         <v>180</v>
@@ -12292,8 +12286,8 @@
       <c r="A446" t="s">
         <v>11</v>
       </c>
-      <c r="B446" s="6" t="s">
-        <v>13</v>
+      <c r="B446" s="6">
+        <v>45</v>
       </c>
       <c r="C446" s="1">
         <v>180</v>
@@ -12318,8 +12312,8 @@
       <c r="A447" t="s">
         <v>11</v>
       </c>
-      <c r="B447" s="6" t="s">
-        <v>13</v>
+      <c r="B447" s="6">
+        <v>45</v>
       </c>
       <c r="C447" s="1">
         <v>180</v>
@@ -12344,8 +12338,8 @@
       <c r="A448" t="s">
         <v>11</v>
       </c>
-      <c r="B448" s="6" t="s">
-        <v>13</v>
+      <c r="B448" s="6">
+        <v>45</v>
       </c>
       <c r="C448" s="1">
         <v>180</v>
@@ -12370,8 +12364,8 @@
       <c r="A449" t="s">
         <v>11</v>
       </c>
-      <c r="B449" s="6" t="s">
-        <v>13</v>
+      <c r="B449" s="6">
+        <v>45</v>
       </c>
       <c r="C449" s="1">
         <v>180</v>
@@ -12396,8 +12390,8 @@
       <c r="A450" t="s">
         <v>11</v>
       </c>
-      <c r="B450" s="6" t="s">
-        <v>13</v>
+      <c r="B450" s="6">
+        <v>45</v>
       </c>
       <c r="C450" s="1">
         <v>180</v>
@@ -12422,8 +12416,8 @@
       <c r="A451" t="s">
         <v>11</v>
       </c>
-      <c r="B451" s="6" t="s">
-        <v>13</v>
+      <c r="B451" s="6">
+        <v>45</v>
       </c>
       <c r="C451" s="1">
         <v>180</v>
@@ -12448,8 +12442,8 @@
       <c r="A452" t="s">
         <v>11</v>
       </c>
-      <c r="B452" s="6" t="s">
-        <v>13</v>
+      <c r="B452" s="6">
+        <v>45</v>
       </c>
       <c r="C452" s="1">
         <v>180</v>
@@ -12474,8 +12468,8 @@
       <c r="A453" t="s">
         <v>11</v>
       </c>
-      <c r="B453" s="6" t="s">
-        <v>13</v>
+      <c r="B453" s="6">
+        <v>45</v>
       </c>
       <c r="C453" s="1">
         <v>180</v>
@@ -12500,8 +12494,8 @@
       <c r="A454" t="s">
         <v>11</v>
       </c>
-      <c r="B454" s="6" t="s">
-        <v>13</v>
+      <c r="B454" s="6">
+        <v>45</v>
       </c>
       <c r="C454" s="1">
         <v>180</v>
@@ -12526,8 +12520,8 @@
       <c r="A455" t="s">
         <v>11</v>
       </c>
-      <c r="B455" s="6" t="s">
-        <v>13</v>
+      <c r="B455" s="6">
+        <v>45</v>
       </c>
       <c r="C455" s="1">
         <v>180</v>
@@ -12552,8 +12546,8 @@
       <c r="A456" t="s">
         <v>11</v>
       </c>
-      <c r="B456" s="6" t="s">
-        <v>13</v>
+      <c r="B456" s="6">
+        <v>45</v>
       </c>
       <c r="C456" s="1">
         <v>180</v>
@@ -12578,8 +12572,8 @@
       <c r="A457" t="s">
         <v>11</v>
       </c>
-      <c r="B457" s="6" t="s">
-        <v>13</v>
+      <c r="B457" s="6">
+        <v>45</v>
       </c>
       <c r="C457" s="1">
         <v>180</v>
@@ -12604,8 +12598,8 @@
       <c r="A458" t="s">
         <v>11</v>
       </c>
-      <c r="B458" s="6" t="s">
-        <v>13</v>
+      <c r="B458" s="6">
+        <v>45</v>
       </c>
       <c r="C458" s="1">
         <v>180</v>
@@ -12630,8 +12624,8 @@
       <c r="A459" t="s">
         <v>11</v>
       </c>
-      <c r="B459" s="6" t="s">
-        <v>13</v>
+      <c r="B459" s="6">
+        <v>45</v>
       </c>
       <c r="C459" s="1">
         <v>180</v>
@@ -12656,8 +12650,8 @@
       <c r="A460" t="s">
         <v>11</v>
       </c>
-      <c r="B460" s="6" t="s">
-        <v>13</v>
+      <c r="B460" s="6">
+        <v>45</v>
       </c>
       <c r="C460" s="1">
         <v>180</v>
@@ -12682,8 +12676,8 @@
       <c r="A461" t="s">
         <v>11</v>
       </c>
-      <c r="B461" s="6" t="s">
-        <v>13</v>
+      <c r="B461" s="6">
+        <v>45</v>
       </c>
       <c r="C461" s="1">
         <v>180</v>
@@ -12708,8 +12702,8 @@
       <c r="A462" t="s">
         <v>11</v>
       </c>
-      <c r="B462" s="6" t="s">
-        <v>13</v>
+      <c r="B462" s="6">
+        <v>45</v>
       </c>
       <c r="C462" s="1">
         <v>180</v>
@@ -12734,8 +12728,8 @@
       <c r="A463" t="s">
         <v>11</v>
       </c>
-      <c r="B463" s="6" t="s">
-        <v>13</v>
+      <c r="B463" s="6">
+        <v>45</v>
       </c>
       <c r="C463" s="1">
         <v>180</v>
@@ -12760,8 +12754,8 @@
       <c r="A464" t="s">
         <v>11</v>
       </c>
-      <c r="B464" s="6" t="s">
-        <v>13</v>
+      <c r="B464" s="6">
+        <v>45</v>
       </c>
       <c r="C464" s="1">
         <v>180</v>
@@ -12786,8 +12780,8 @@
       <c r="A465" t="s">
         <v>11</v>
       </c>
-      <c r="B465" s="6" t="s">
-        <v>13</v>
+      <c r="B465" s="6">
+        <v>45</v>
       </c>
       <c r="C465" s="1">
         <v>180</v>
@@ -12812,8 +12806,8 @@
       <c r="A466" t="s">
         <v>11</v>
       </c>
-      <c r="B466" s="6" t="s">
-        <v>13</v>
+      <c r="B466" s="6">
+        <v>45</v>
       </c>
       <c r="C466" s="1">
         <v>180</v>
@@ -12838,8 +12832,8 @@
       <c r="A467" t="s">
         <v>11</v>
       </c>
-      <c r="B467" s="6" t="s">
-        <v>13</v>
+      <c r="B467" s="6">
+        <v>45</v>
       </c>
       <c r="C467" s="1">
         <v>180</v>
@@ -12864,8 +12858,8 @@
       <c r="A468" t="s">
         <v>11</v>
       </c>
-      <c r="B468" s="6" t="s">
-        <v>13</v>
+      <c r="B468" s="6">
+        <v>45</v>
       </c>
       <c r="C468" s="1">
         <v>180</v>
@@ -12890,8 +12884,8 @@
       <c r="A469" t="s">
         <v>11</v>
       </c>
-      <c r="B469" s="6" t="s">
-        <v>13</v>
+      <c r="B469" s="6">
+        <v>45</v>
       </c>
       <c r="C469" s="1">
         <v>180</v>
@@ -12916,8 +12910,8 @@
       <c r="A470" t="s">
         <v>11</v>
       </c>
-      <c r="B470" s="13" t="s">
-        <v>13</v>
+      <c r="B470" s="6">
+        <v>45</v>
       </c>
       <c r="C470" s="1">
         <v>0</v>
@@ -12942,8 +12936,8 @@
       <c r="A471" t="s">
         <v>11</v>
       </c>
-      <c r="B471" s="6" t="s">
-        <v>13</v>
+      <c r="B471" s="6">
+        <v>45</v>
       </c>
       <c r="C471" s="1">
         <v>0</v>
@@ -12968,8 +12962,8 @@
       <c r="A472" t="s">
         <v>11</v>
       </c>
-      <c r="B472" s="6" t="s">
-        <v>13</v>
+      <c r="B472" s="6">
+        <v>45</v>
       </c>
       <c r="C472" s="1">
         <v>0</v>
@@ -12994,8 +12988,8 @@
       <c r="A473" t="s">
         <v>11</v>
       </c>
-      <c r="B473" s="6" t="s">
-        <v>13</v>
+      <c r="B473" s="6">
+        <v>45</v>
       </c>
       <c r="C473" s="1">
         <v>0</v>
@@ -13020,8 +13014,8 @@
       <c r="A474" t="s">
         <v>11</v>
       </c>
-      <c r="B474" s="6" t="s">
-        <v>13</v>
+      <c r="B474" s="6">
+        <v>45</v>
       </c>
       <c r="C474" s="1">
         <v>0</v>
@@ -13046,8 +13040,8 @@
       <c r="A475" t="s">
         <v>11</v>
       </c>
-      <c r="B475" s="6" t="s">
-        <v>13</v>
+      <c r="B475" s="6">
+        <v>45</v>
       </c>
       <c r="C475" s="1">
         <v>0</v>
@@ -13072,8 +13066,8 @@
       <c r="A476" t="s">
         <v>11</v>
       </c>
-      <c r="B476" s="6" t="s">
-        <v>13</v>
+      <c r="B476" s="6">
+        <v>45</v>
       </c>
       <c r="C476" s="1">
         <v>0</v>
@@ -13098,8 +13092,8 @@
       <c r="A477" t="s">
         <v>11</v>
       </c>
-      <c r="B477" s="6" t="s">
-        <v>13</v>
+      <c r="B477" s="6">
+        <v>45</v>
       </c>
       <c r="C477" s="1">
         <v>0</v>
@@ -13124,8 +13118,8 @@
       <c r="A478" t="s">
         <v>11</v>
       </c>
-      <c r="B478" s="6" t="s">
-        <v>13</v>
+      <c r="B478" s="6">
+        <v>45</v>
       </c>
       <c r="C478" s="1">
         <v>0</v>
@@ -13150,8 +13144,8 @@
       <c r="A479" t="s">
         <v>11</v>
       </c>
-      <c r="B479" s="6" t="s">
-        <v>13</v>
+      <c r="B479" s="6">
+        <v>45</v>
       </c>
       <c r="C479" s="1">
         <v>0</v>
@@ -13176,8 +13170,8 @@
       <c r="A480" t="s">
         <v>11</v>
       </c>
-      <c r="B480" s="6" t="s">
-        <v>13</v>
+      <c r="B480" s="6">
+        <v>45</v>
       </c>
       <c r="C480" s="1">
         <v>0</v>
@@ -13202,8 +13196,8 @@
       <c r="A481" t="s">
         <v>11</v>
       </c>
-      <c r="B481" s="6" t="s">
-        <v>13</v>
+      <c r="B481" s="6">
+        <v>45</v>
       </c>
       <c r="C481" s="1">
         <v>0</v>
@@ -13228,8 +13222,8 @@
       <c r="A482" t="s">
         <v>11</v>
       </c>
-      <c r="B482" s="6" t="s">
-        <v>13</v>
+      <c r="B482" s="6">
+        <v>45</v>
       </c>
       <c r="C482" s="1">
         <v>0</v>
@@ -13254,8 +13248,8 @@
       <c r="A483" t="s">
         <v>11</v>
       </c>
-      <c r="B483" s="6" t="s">
-        <v>13</v>
+      <c r="B483" s="6">
+        <v>45</v>
       </c>
       <c r="C483" s="1">
         <v>0</v>
@@ -13280,8 +13274,8 @@
       <c r="A484" t="s">
         <v>11</v>
       </c>
-      <c r="B484" s="6" t="s">
-        <v>13</v>
+      <c r="B484" s="6">
+        <v>45</v>
       </c>
       <c r="C484" s="1">
         <v>0</v>
@@ -13306,8 +13300,8 @@
       <c r="A485" t="s">
         <v>11</v>
       </c>
-      <c r="B485" s="6" t="s">
-        <v>13</v>
+      <c r="B485" s="6">
+        <v>45</v>
       </c>
       <c r="C485" s="1">
         <v>0</v>
@@ -13332,8 +13326,8 @@
       <c r="A486" t="s">
         <v>11</v>
       </c>
-      <c r="B486" s="6" t="s">
-        <v>13</v>
+      <c r="B486" s="6">
+        <v>45</v>
       </c>
       <c r="C486" s="1">
         <v>0</v>
@@ -13358,8 +13352,8 @@
       <c r="A487" t="s">
         <v>11</v>
       </c>
-      <c r="B487" s="6" t="s">
-        <v>13</v>
+      <c r="B487" s="6">
+        <v>45</v>
       </c>
       <c r="C487" s="1">
         <v>0</v>
@@ -13384,8 +13378,8 @@
       <c r="A488" t="s">
         <v>11</v>
       </c>
-      <c r="B488" s="6" t="s">
-        <v>13</v>
+      <c r="B488" s="6">
+        <v>45</v>
       </c>
       <c r="C488" s="1">
         <v>0</v>
@@ -13410,8 +13404,8 @@
       <c r="A489" t="s">
         <v>11</v>
       </c>
-      <c r="B489" s="6" t="s">
-        <v>13</v>
+      <c r="B489" s="6">
+        <v>45</v>
       </c>
       <c r="C489" s="1">
         <v>0</v>
@@ -13436,8 +13430,8 @@
       <c r="A490" t="s">
         <v>11</v>
       </c>
-      <c r="B490" s="6" t="s">
-        <v>13</v>
+      <c r="B490" s="6">
+        <v>45</v>
       </c>
       <c r="C490" s="1">
         <v>0</v>
@@ -13462,8 +13456,8 @@
       <c r="A491" t="s">
         <v>11</v>
       </c>
-      <c r="B491" s="6" t="s">
-        <v>13</v>
+      <c r="B491" s="6">
+        <v>45</v>
       </c>
       <c r="C491" s="1">
         <v>0</v>
@@ -13488,8 +13482,8 @@
       <c r="A492" t="s">
         <v>11</v>
       </c>
-      <c r="B492" s="6" t="s">
-        <v>13</v>
+      <c r="B492" s="6">
+        <v>45</v>
       </c>
       <c r="C492" s="1">
         <v>0</v>
@@ -13514,8 +13508,8 @@
       <c r="A493" t="s">
         <v>11</v>
       </c>
-      <c r="B493" s="6" t="s">
-        <v>13</v>
+      <c r="B493" s="6">
+        <v>45</v>
       </c>
       <c r="C493" s="1">
         <v>0</v>
@@ -13540,8 +13534,8 @@
       <c r="A494" t="s">
         <v>11</v>
       </c>
-      <c r="B494" s="6" t="s">
-        <v>13</v>
+      <c r="B494" s="6">
+        <v>45</v>
       </c>
       <c r="C494" s="1">
         <v>0</v>
@@ -13566,8 +13560,8 @@
       <c r="A495" t="s">
         <v>11</v>
       </c>
-      <c r="B495" s="6" t="s">
-        <v>13</v>
+      <c r="B495" s="6">
+        <v>45</v>
       </c>
       <c r="C495" s="1">
         <v>0</v>
@@ -13592,8 +13586,8 @@
       <c r="A496" t="s">
         <v>11</v>
       </c>
-      <c r="B496" s="6" t="s">
-        <v>13</v>
+      <c r="B496" s="6">
+        <v>45</v>
       </c>
       <c r="C496" s="1">
         <v>0</v>
@@ -13618,8 +13612,8 @@
       <c r="A497" t="s">
         <v>11</v>
       </c>
-      <c r="B497" s="6" t="s">
-        <v>13</v>
+      <c r="B497" s="6">
+        <v>45</v>
       </c>
       <c r="C497" s="1">
         <v>0</v>
@@ -13644,8 +13638,8 @@
       <c r="A498" t="s">
         <v>11</v>
       </c>
-      <c r="B498" s="6" t="s">
-        <v>13</v>
+      <c r="B498" s="6">
+        <v>45</v>
       </c>
       <c r="C498" s="1">
         <v>0</v>
@@ -13670,8 +13664,8 @@
       <c r="A499" t="s">
         <v>11</v>
       </c>
-      <c r="B499" s="6" t="s">
-        <v>13</v>
+      <c r="B499" s="6">
+        <v>45</v>
       </c>
       <c r="C499" s="1">
         <v>0</v>
@@ -13696,8 +13690,8 @@
       <c r="A500" t="s">
         <v>11</v>
       </c>
-      <c r="B500" s="6" t="s">
-        <v>13</v>
+      <c r="B500" s="6">
+        <v>45</v>
       </c>
       <c r="C500" s="1">
         <v>0</v>
@@ -13722,8 +13716,8 @@
       <c r="A501" t="s">
         <v>11</v>
       </c>
-      <c r="B501" s="6" t="s">
-        <v>13</v>
+      <c r="B501" s="6">
+        <v>45</v>
       </c>
       <c r="C501" s="1">
         <v>0</v>
@@ -13748,8 +13742,8 @@
       <c r="A502" t="s">
         <v>11</v>
       </c>
-      <c r="B502" s="6" t="s">
-        <v>13</v>
+      <c r="B502" s="6">
+        <v>45</v>
       </c>
       <c r="C502" s="1">
         <v>0</v>
@@ -13774,8 +13768,8 @@
       <c r="A503" t="s">
         <v>11</v>
       </c>
-      <c r="B503" s="6" t="s">
-        <v>13</v>
+      <c r="B503" s="6">
+        <v>45</v>
       </c>
       <c r="C503" s="1">
         <v>0</v>
@@ -13800,8 +13794,8 @@
       <c r="A504" t="s">
         <v>11</v>
       </c>
-      <c r="B504" s="6" t="s">
-        <v>13</v>
+      <c r="B504" s="6">
+        <v>45</v>
       </c>
       <c r="C504" s="1">
         <v>0</v>
@@ -13826,8 +13820,8 @@
       <c r="A505" t="s">
         <v>11</v>
       </c>
-      <c r="B505" s="6" t="s">
-        <v>13</v>
+      <c r="B505" s="6">
+        <v>45</v>
       </c>
       <c r="C505" s="1">
         <v>0</v>
@@ -13852,8 +13846,8 @@
       <c r="A506" t="s">
         <v>11</v>
       </c>
-      <c r="B506" s="6" t="s">
-        <v>13</v>
+      <c r="B506" s="6">
+        <v>45</v>
       </c>
       <c r="C506" s="1">
         <v>0</v>
@@ -13878,8 +13872,8 @@
       <c r="A507" t="s">
         <v>11</v>
       </c>
-      <c r="B507" s="6" t="s">
-        <v>13</v>
+      <c r="B507" s="6">
+        <v>45</v>
       </c>
       <c r="C507" s="1">
         <v>0</v>
@@ -13904,8 +13898,8 @@
       <c r="A508" t="s">
         <v>11</v>
       </c>
-      <c r="B508" s="6" t="s">
-        <v>13</v>
+      <c r="B508" s="6">
+        <v>45</v>
       </c>
       <c r="C508" s="1">
         <v>0</v>
@@ -13930,8 +13924,8 @@
       <c r="A509" t="s">
         <v>11</v>
       </c>
-      <c r="B509" s="6" t="s">
-        <v>13</v>
+      <c r="B509" s="6">
+        <v>45</v>
       </c>
       <c r="C509" s="1">
         <v>0</v>
@@ -13956,8 +13950,8 @@
       <c r="A510" t="s">
         <v>11</v>
       </c>
-      <c r="B510" s="6" t="s">
-        <v>13</v>
+      <c r="B510" s="6">
+        <v>45</v>
       </c>
       <c r="C510" s="1">
         <v>0</v>
@@ -13982,8 +13976,8 @@
       <c r="A511" t="s">
         <v>11</v>
       </c>
-      <c r="B511" s="6" t="s">
-        <v>13</v>
+      <c r="B511" s="6">
+        <v>45</v>
       </c>
       <c r="C511" s="1">
         <v>0</v>
@@ -14008,8 +14002,8 @@
       <c r="A512" t="s">
         <v>11</v>
       </c>
-      <c r="B512" s="6" t="s">
-        <v>13</v>
+      <c r="B512" s="6">
+        <v>45</v>
       </c>
       <c r="C512" s="1">
         <v>0</v>
@@ -14034,8 +14028,8 @@
       <c r="A513" t="s">
         <v>11</v>
       </c>
-      <c r="B513" s="6" t="s">
-        <v>13</v>
+      <c r="B513" s="6">
+        <v>45</v>
       </c>
       <c r="C513" s="1">
         <v>0</v>
@@ -14060,8 +14054,8 @@
       <c r="A514" t="s">
         <v>11</v>
       </c>
-      <c r="B514" s="6" t="s">
-        <v>13</v>
+      <c r="B514" s="6">
+        <v>45</v>
       </c>
       <c r="C514" s="1">
         <v>0</v>
@@ -14086,8 +14080,8 @@
       <c r="A515" t="s">
         <v>11</v>
       </c>
-      <c r="B515" s="6" t="s">
-        <v>13</v>
+      <c r="B515" s="6">
+        <v>45</v>
       </c>
       <c r="C515" s="1">
         <v>0</v>
@@ -14112,8 +14106,8 @@
       <c r="A516" t="s">
         <v>11</v>
       </c>
-      <c r="B516" s="6" t="s">
-        <v>13</v>
+      <c r="B516" s="6">
+        <v>45</v>
       </c>
       <c r="C516" s="1">
         <v>0</v>
@@ -14138,8 +14132,8 @@
       <c r="A517" t="s">
         <v>11</v>
       </c>
-      <c r="B517" s="6" t="s">
-        <v>13</v>
+      <c r="B517" s="6">
+        <v>45</v>
       </c>
       <c r="C517" s="1">
         <v>0</v>
@@ -14164,8 +14158,8 @@
       <c r="A518" t="s">
         <v>11</v>
       </c>
-      <c r="B518" s="6" t="s">
-        <v>13</v>
+      <c r="B518" s="6">
+        <v>45</v>
       </c>
       <c r="C518" s="1">
         <v>0</v>
@@ -14190,8 +14184,8 @@
       <c r="A519" t="s">
         <v>11</v>
       </c>
-      <c r="B519" s="6" t="s">
-        <v>13</v>
+      <c r="B519" s="6">
+        <v>45</v>
       </c>
       <c r="C519" s="1">
         <v>0</v>
@@ -14216,8 +14210,8 @@
       <c r="A520" t="s">
         <v>11</v>
       </c>
-      <c r="B520" s="6" t="s">
-        <v>13</v>
+      <c r="B520" s="6">
+        <v>45</v>
       </c>
       <c r="C520" s="1">
         <v>0</v>
@@ -14242,8 +14236,8 @@
       <c r="A521" t="s">
         <v>11</v>
       </c>
-      <c r="B521" s="6" t="s">
-        <v>13</v>
+      <c r="B521" s="6">
+        <v>45</v>
       </c>
       <c r="C521" s="1">
         <v>0</v>
@@ -14268,8 +14262,8 @@
       <c r="A522" t="s">
         <v>11</v>
       </c>
-      <c r="B522" s="6" t="s">
-        <v>13</v>
+      <c r="B522" s="6">
+        <v>45</v>
       </c>
       <c r="C522" s="1">
         <v>0</v>
@@ -14294,8 +14288,8 @@
       <c r="A523" t="s">
         <v>11</v>
       </c>
-      <c r="B523" s="6" t="s">
-        <v>13</v>
+      <c r="B523" s="6">
+        <v>45</v>
       </c>
       <c r="C523" s="1">
         <v>0</v>
@@ -14320,8 +14314,8 @@
       <c r="A524" t="s">
         <v>11</v>
       </c>
-      <c r="B524" s="6" t="s">
-        <v>13</v>
+      <c r="B524" s="6">
+        <v>45</v>
       </c>
       <c r="C524" s="1">
         <v>0</v>
@@ -14346,8 +14340,8 @@
       <c r="A525" t="s">
         <v>11</v>
       </c>
-      <c r="B525" s="6" t="s">
-        <v>13</v>
+      <c r="B525" s="6">
+        <v>45</v>
       </c>
       <c r="C525" s="1">
         <v>0</v>
@@ -14372,8 +14366,8 @@
       <c r="A526" t="s">
         <v>11</v>
       </c>
-      <c r="B526" s="6" t="s">
-        <v>13</v>
+      <c r="B526" s="6">
+        <v>45</v>
       </c>
       <c r="C526" s="1">
         <v>0</v>
@@ -14398,8 +14392,8 @@
       <c r="A527" t="s">
         <v>11</v>
       </c>
-      <c r="B527" s="6" t="s">
-        <v>13</v>
+      <c r="B527" s="6">
+        <v>45</v>
       </c>
       <c r="C527" s="1">
         <v>0</v>
@@ -14424,8 +14418,8 @@
       <c r="A528" t="s">
         <v>11</v>
       </c>
-      <c r="B528" s="6" t="s">
-        <v>13</v>
+      <c r="B528" s="6">
+        <v>45</v>
       </c>
       <c r="C528" s="1">
         <v>0</v>
@@ -14450,8 +14444,8 @@
       <c r="A529" t="s">
         <v>11</v>
       </c>
-      <c r="B529" s="6" t="s">
-        <v>13</v>
+      <c r="B529" s="6">
+        <v>45</v>
       </c>
       <c r="C529" s="1">
         <v>0</v>
@@ -14476,8 +14470,8 @@
       <c r="A530" t="s">
         <v>11</v>
       </c>
-      <c r="B530" s="6" t="s">
-        <v>13</v>
+      <c r="B530" s="6">
+        <v>45</v>
       </c>
       <c r="C530" s="1">
         <v>0</v>
@@ -14502,8 +14496,8 @@
       <c r="A531" t="s">
         <v>11</v>
       </c>
-      <c r="B531" s="6" t="s">
-        <v>13</v>
+      <c r="B531" s="6">
+        <v>45</v>
       </c>
       <c r="C531" s="1">
         <v>0</v>
@@ -14528,8 +14522,8 @@
       <c r="A532" t="s">
         <v>11</v>
       </c>
-      <c r="B532" s="6" t="s">
-        <v>13</v>
+      <c r="B532" s="6">
+        <v>45</v>
       </c>
       <c r="C532" s="1">
         <v>0</v>
@@ -14554,8 +14548,8 @@
       <c r="A533" t="s">
         <v>11</v>
       </c>
-      <c r="B533" s="6" t="s">
-        <v>13</v>
+      <c r="B533" s="6">
+        <v>45</v>
       </c>
       <c r="C533" s="1">
         <v>0</v>
@@ -14580,8 +14574,8 @@
       <c r="A534" t="s">
         <v>11</v>
       </c>
-      <c r="B534" s="6" t="s">
-        <v>13</v>
+      <c r="B534" s="6">
+        <v>45</v>
       </c>
       <c r="C534" s="1">
         <v>0</v>
@@ -14606,8 +14600,8 @@
       <c r="A535" t="s">
         <v>11</v>
       </c>
-      <c r="B535" s="6" t="s">
-        <v>13</v>
+      <c r="B535" s="6">
+        <v>45</v>
       </c>
       <c r="C535" s="1">
         <v>0</v>
@@ -14632,8 +14626,8 @@
       <c r="A536" t="s">
         <v>11</v>
       </c>
-      <c r="B536" s="6" t="s">
-        <v>13</v>
+      <c r="B536" s="6">
+        <v>45</v>
       </c>
       <c r="C536" s="1">
         <v>0</v>
@@ -14658,8 +14652,8 @@
       <c r="A537" t="s">
         <v>11</v>
       </c>
-      <c r="B537" s="6" t="s">
-        <v>13</v>
+      <c r="B537" s="6">
+        <v>45</v>
       </c>
       <c r="C537" s="1">
         <v>0</v>
@@ -14684,8 +14678,8 @@
       <c r="A538" t="s">
         <v>11</v>
       </c>
-      <c r="B538" s="6" t="s">
-        <v>13</v>
+      <c r="B538" s="6">
+        <v>45</v>
       </c>
       <c r="C538" s="1">
         <v>0</v>
@@ -14710,8 +14704,8 @@
       <c r="A539" t="s">
         <v>11</v>
       </c>
-      <c r="B539" s="6" t="s">
-        <v>13</v>
+      <c r="B539" s="6">
+        <v>45</v>
       </c>
       <c r="C539" s="1">
         <v>0</v>
@@ -14736,8 +14730,8 @@
       <c r="A540" t="s">
         <v>11</v>
       </c>
-      <c r="B540" s="6" t="s">
-        <v>13</v>
+      <c r="B540" s="6">
+        <v>45</v>
       </c>
       <c r="C540" s="1">
         <v>0</v>
@@ -14762,8 +14756,8 @@
       <c r="A541" t="s">
         <v>11</v>
       </c>
-      <c r="B541" s="6" t="s">
-        <v>13</v>
+      <c r="B541" s="6">
+        <v>45</v>
       </c>
       <c r="C541" s="1">
         <v>0</v>
@@ -14788,8 +14782,8 @@
       <c r="A542" t="s">
         <v>11</v>
       </c>
-      <c r="B542" s="6" t="s">
-        <v>13</v>
+      <c r="B542" s="6">
+        <v>45</v>
       </c>
       <c r="C542" s="1">
         <v>0</v>
@@ -14814,8 +14808,8 @@
       <c r="A543" t="s">
         <v>11</v>
       </c>
-      <c r="B543" s="6" t="s">
-        <v>13</v>
+      <c r="B543" s="6">
+        <v>45</v>
       </c>
       <c r="C543" s="1">
         <v>0</v>
@@ -14840,8 +14834,8 @@
       <c r="A544" t="s">
         <v>11</v>
       </c>
-      <c r="B544" s="6" t="s">
-        <v>13</v>
+      <c r="B544" s="6">
+        <v>45</v>
       </c>
       <c r="C544" s="1">
         <v>0</v>
@@ -14866,8 +14860,8 @@
       <c r="A545" t="s">
         <v>11</v>
       </c>
-      <c r="B545" s="6" t="s">
-        <v>13</v>
+      <c r="B545" s="6">
+        <v>45</v>
       </c>
       <c r="C545" s="1">
         <v>0</v>
@@ -14892,8 +14886,8 @@
       <c r="A546" t="s">
         <v>11</v>
       </c>
-      <c r="B546" s="6" t="s">
-        <v>13</v>
+      <c r="B546" s="6">
+        <v>45</v>
       </c>
       <c r="C546" s="1">
         <v>0</v>
@@ -14918,8 +14912,8 @@
       <c r="A547" t="s">
         <v>11</v>
       </c>
-      <c r="B547" s="6" t="s">
-        <v>13</v>
+      <c r="B547" s="6">
+        <v>45</v>
       </c>
       <c r="C547" s="1">
         <v>0</v>
@@ -14944,8 +14938,8 @@
       <c r="A548" t="s">
         <v>11</v>
       </c>
-      <c r="B548" s="13" t="s">
-        <v>13</v>
+      <c r="B548" s="6">
+        <v>45</v>
       </c>
       <c r="C548" s="1">
         <v>180</v>
@@ -14970,8 +14964,8 @@
       <c r="A549" t="s">
         <v>11</v>
       </c>
-      <c r="B549" s="6" t="s">
-        <v>13</v>
+      <c r="B549" s="6">
+        <v>45</v>
       </c>
       <c r="C549" s="1">
         <v>180</v>
@@ -14996,8 +14990,8 @@
       <c r="A550" t="s">
         <v>11</v>
       </c>
-      <c r="B550" s="6" t="s">
-        <v>13</v>
+      <c r="B550" s="6">
+        <v>45</v>
       </c>
       <c r="C550" s="1">
         <v>180</v>
@@ -15022,8 +15016,8 @@
       <c r="A551" t="s">
         <v>11</v>
       </c>
-      <c r="B551" s="6" t="s">
-        <v>13</v>
+      <c r="B551" s="6">
+        <v>45</v>
       </c>
       <c r="C551" s="1">
         <v>180</v>
@@ -15048,8 +15042,8 @@
       <c r="A552" t="s">
         <v>11</v>
       </c>
-      <c r="B552" s="6" t="s">
-        <v>13</v>
+      <c r="B552" s="6">
+        <v>45</v>
       </c>
       <c r="C552" s="1">
         <v>180</v>
@@ -15074,8 +15068,8 @@
       <c r="A553" t="s">
         <v>11</v>
       </c>
-      <c r="B553" s="6" t="s">
-        <v>13</v>
+      <c r="B553" s="6">
+        <v>45</v>
       </c>
       <c r="C553" s="1">
         <v>180</v>
@@ -15100,8 +15094,8 @@
       <c r="A554" t="s">
         <v>11</v>
       </c>
-      <c r="B554" s="6" t="s">
-        <v>13</v>
+      <c r="B554" s="6">
+        <v>45</v>
       </c>
       <c r="C554" s="1">
         <v>180</v>
@@ -15126,8 +15120,8 @@
       <c r="A555" t="s">
         <v>11</v>
       </c>
-      <c r="B555" s="6" t="s">
-        <v>13</v>
+      <c r="B555" s="6">
+        <v>45</v>
       </c>
       <c r="C555" s="1">
         <v>180</v>
@@ -15152,8 +15146,8 @@
       <c r="A556" t="s">
         <v>11</v>
       </c>
-      <c r="B556" s="6" t="s">
-        <v>13</v>
+      <c r="B556" s="6">
+        <v>45</v>
       </c>
       <c r="C556" s="1">
         <v>180</v>
@@ -15178,8 +15172,8 @@
       <c r="A557" t="s">
         <v>11</v>
       </c>
-      <c r="B557" s="6" t="s">
-        <v>13</v>
+      <c r="B557" s="6">
+        <v>45</v>
       </c>
       <c r="C557" s="1">
         <v>180</v>
@@ -15204,8 +15198,8 @@
       <c r="A558" t="s">
         <v>11</v>
       </c>
-      <c r="B558" s="6" t="s">
-        <v>13</v>
+      <c r="B558" s="6">
+        <v>45</v>
       </c>
       <c r="C558" s="1">
         <v>180</v>
@@ -15230,8 +15224,8 @@
       <c r="A559" t="s">
         <v>11</v>
       </c>
-      <c r="B559" s="6" t="s">
-        <v>13</v>
+      <c r="B559" s="6">
+        <v>45</v>
       </c>
       <c r="C559" s="1">
         <v>180</v>
@@ -15256,8 +15250,8 @@
       <c r="A560" t="s">
         <v>11</v>
       </c>
-      <c r="B560" s="6" t="s">
-        <v>13</v>
+      <c r="B560" s="6">
+        <v>45</v>
       </c>
       <c r="C560" s="1">
         <v>180</v>
@@ -15282,8 +15276,8 @@
       <c r="A561" t="s">
         <v>11</v>
       </c>
-      <c r="B561" s="6" t="s">
-        <v>13</v>
+      <c r="B561" s="6">
+        <v>45</v>
       </c>
       <c r="C561" s="1">
         <v>180</v>
@@ -15308,8 +15302,8 @@
       <c r="A562" t="s">
         <v>11</v>
       </c>
-      <c r="B562" s="6" t="s">
-        <v>13</v>
+      <c r="B562" s="6">
+        <v>45</v>
       </c>
       <c r="C562" s="1">
         <v>180</v>
@@ -15334,8 +15328,8 @@
       <c r="A563" t="s">
         <v>11</v>
       </c>
-      <c r="B563" s="6" t="s">
-        <v>13</v>
+      <c r="B563" s="6">
+        <v>45</v>
       </c>
       <c r="C563" s="1">
         <v>180</v>
@@ -15360,8 +15354,8 @@
       <c r="A564" t="s">
         <v>11</v>
       </c>
-      <c r="B564" s="6" t="s">
-        <v>13</v>
+      <c r="B564" s="6">
+        <v>45</v>
       </c>
       <c r="C564" s="1">
         <v>180</v>
@@ -15386,8 +15380,8 @@
       <c r="A565" t="s">
         <v>11</v>
       </c>
-      <c r="B565" s="6" t="s">
-        <v>13</v>
+      <c r="B565" s="6">
+        <v>45</v>
       </c>
       <c r="C565" s="1">
         <v>180</v>
@@ -15412,8 +15406,8 @@
       <c r="A566" t="s">
         <v>11</v>
       </c>
-      <c r="B566" s="6" t="s">
-        <v>13</v>
+      <c r="B566" s="6">
+        <v>45</v>
       </c>
       <c r="C566" s="1">
         <v>180</v>
@@ -15438,8 +15432,8 @@
       <c r="A567" t="s">
         <v>11</v>
       </c>
-      <c r="B567" s="6" t="s">
-        <v>13</v>
+      <c r="B567" s="6">
+        <v>45</v>
       </c>
       <c r="C567" s="1">
         <v>180</v>
@@ -15464,8 +15458,8 @@
       <c r="A568" t="s">
         <v>11</v>
       </c>
-      <c r="B568" s="6" t="s">
-        <v>13</v>
+      <c r="B568" s="6">
+        <v>45</v>
       </c>
       <c r="C568" s="1">
         <v>180</v>
@@ -15490,8 +15484,8 @@
       <c r="A569" t="s">
         <v>11</v>
       </c>
-      <c r="B569" s="6" t="s">
-        <v>13</v>
+      <c r="B569" s="6">
+        <v>45</v>
       </c>
       <c r="C569" s="1">
         <v>180</v>
@@ -15516,8 +15510,8 @@
       <c r="A570" t="s">
         <v>11</v>
       </c>
-      <c r="B570" s="6" t="s">
-        <v>13</v>
+      <c r="B570" s="6">
+        <v>45</v>
       </c>
       <c r="C570" s="1">
         <v>180</v>
@@ -15542,8 +15536,8 @@
       <c r="A571" t="s">
         <v>11</v>
       </c>
-      <c r="B571" s="6" t="s">
-        <v>13</v>
+      <c r="B571" s="6">
+        <v>45</v>
       </c>
       <c r="C571" s="1">
         <v>180</v>
@@ -15568,8 +15562,8 @@
       <c r="A572" t="s">
         <v>11</v>
       </c>
-      <c r="B572" s="6" t="s">
-        <v>13</v>
+      <c r="B572" s="6">
+        <v>45</v>
       </c>
       <c r="C572" s="1">
         <v>180</v>
@@ -15594,8 +15588,8 @@
       <c r="A573" t="s">
         <v>11</v>
       </c>
-      <c r="B573" s="6" t="s">
-        <v>13</v>
+      <c r="B573" s="6">
+        <v>45</v>
       </c>
       <c r="C573" s="1">
         <v>180</v>
@@ -15620,8 +15614,8 @@
       <c r="A574" t="s">
         <v>11</v>
       </c>
-      <c r="B574" s="6" t="s">
-        <v>13</v>
+      <c r="B574" s="6">
+        <v>45</v>
       </c>
       <c r="C574" s="1">
         <v>180</v>
@@ -15646,8 +15640,8 @@
       <c r="A575" t="s">
         <v>11</v>
       </c>
-      <c r="B575" s="6" t="s">
-        <v>13</v>
+      <c r="B575" s="6">
+        <v>45</v>
       </c>
       <c r="C575" s="1">
         <v>180</v>
@@ -15672,8 +15666,8 @@
       <c r="A576" t="s">
         <v>11</v>
       </c>
-      <c r="B576" s="6" t="s">
-        <v>13</v>
+      <c r="B576" s="6">
+        <v>45</v>
       </c>
       <c r="C576" s="1">
         <v>180</v>
@@ -15698,8 +15692,8 @@
       <c r="A577" t="s">
         <v>11</v>
       </c>
-      <c r="B577" s="6" t="s">
-        <v>13</v>
+      <c r="B577" s="6">
+        <v>45</v>
       </c>
       <c r="C577" s="1">
         <v>180</v>
@@ -15724,8 +15718,8 @@
       <c r="A578" t="s">
         <v>11</v>
       </c>
-      <c r="B578" s="6" t="s">
-        <v>13</v>
+      <c r="B578" s="6">
+        <v>45</v>
       </c>
       <c r="C578" s="1">
         <v>180</v>
@@ -15750,8 +15744,8 @@
       <c r="A579" t="s">
         <v>11</v>
       </c>
-      <c r="B579" s="6" t="s">
-        <v>13</v>
+      <c r="B579" s="6">
+        <v>45</v>
       </c>
       <c r="C579" s="1">
         <v>180</v>
@@ -15776,8 +15770,8 @@
       <c r="A580" t="s">
         <v>11</v>
       </c>
-      <c r="B580" s="6" t="s">
-        <v>13</v>
+      <c r="B580" s="6">
+        <v>45</v>
       </c>
       <c r="C580" s="1">
         <v>180</v>
@@ -15802,8 +15796,8 @@
       <c r="A581" t="s">
         <v>11</v>
       </c>
-      <c r="B581" s="6" t="s">
-        <v>13</v>
+      <c r="B581" s="6">
+        <v>45</v>
       </c>
       <c r="C581" s="1">
         <v>180</v>
@@ -15828,8 +15822,8 @@
       <c r="A582" t="s">
         <v>11</v>
       </c>
-      <c r="B582" s="6" t="s">
-        <v>13</v>
+      <c r="B582" s="6">
+        <v>45</v>
       </c>
       <c r="C582" s="1">
         <v>180</v>
@@ -15854,8 +15848,8 @@
       <c r="A583" t="s">
         <v>11</v>
       </c>
-      <c r="B583" s="6" t="s">
-        <v>13</v>
+      <c r="B583" s="6">
+        <v>45</v>
       </c>
       <c r="C583" s="1">
         <v>180</v>
@@ -15880,8 +15874,8 @@
       <c r="A584" t="s">
         <v>11</v>
       </c>
-      <c r="B584" s="6" t="s">
-        <v>13</v>
+      <c r="B584" s="6">
+        <v>45</v>
       </c>
       <c r="C584" s="1">
         <v>180</v>
@@ -15906,8 +15900,8 @@
       <c r="A585" t="s">
         <v>11</v>
       </c>
-      <c r="B585" s="6" t="s">
-        <v>13</v>
+      <c r="B585" s="6">
+        <v>45</v>
       </c>
       <c r="C585" s="1">
         <v>180</v>
@@ -15932,8 +15926,8 @@
       <c r="A586" t="s">
         <v>11</v>
       </c>
-      <c r="B586" s="6" t="s">
-        <v>13</v>
+      <c r="B586" s="6">
+        <v>45</v>
       </c>
       <c r="C586" s="1">
         <v>180</v>
@@ -15958,8 +15952,8 @@
       <c r="A587" t="s">
         <v>11</v>
       </c>
-      <c r="B587" s="6" t="s">
-        <v>13</v>
+      <c r="B587" s="6">
+        <v>45</v>
       </c>
       <c r="C587" s="1">
         <v>180</v>
@@ -15984,8 +15978,8 @@
       <c r="A588" t="s">
         <v>11</v>
       </c>
-      <c r="B588" s="6" t="s">
-        <v>13</v>
+      <c r="B588" s="6">
+        <v>45</v>
       </c>
       <c r="C588" s="1">
         <v>180</v>
@@ -16010,8 +16004,8 @@
       <c r="A589" t="s">
         <v>11</v>
       </c>
-      <c r="B589" s="6" t="s">
-        <v>13</v>
+      <c r="B589" s="6">
+        <v>45</v>
       </c>
       <c r="C589" s="1">
         <v>180</v>
@@ -16036,8 +16030,8 @@
       <c r="A590" t="s">
         <v>11</v>
       </c>
-      <c r="B590" s="6" t="s">
-        <v>13</v>
+      <c r="B590" s="6">
+        <v>45</v>
       </c>
       <c r="C590" s="1">
         <v>180</v>
@@ -16062,8 +16056,8 @@
       <c r="A591" t="s">
         <v>11</v>
       </c>
-      <c r="B591" s="6" t="s">
-        <v>13</v>
+      <c r="B591" s="6">
+        <v>45</v>
       </c>
       <c r="C591" s="1">
         <v>180</v>
@@ -16088,8 +16082,8 @@
       <c r="A592" t="s">
         <v>11</v>
       </c>
-      <c r="B592" s="6" t="s">
-        <v>13</v>
+      <c r="B592" s="6">
+        <v>45</v>
       </c>
       <c r="C592" s="1">
         <v>180</v>
@@ -16114,8 +16108,8 @@
       <c r="A593" t="s">
         <v>11</v>
       </c>
-      <c r="B593" s="6" t="s">
-        <v>13</v>
+      <c r="B593" s="6">
+        <v>45</v>
       </c>
       <c r="C593" s="1">
         <v>180</v>
@@ -16140,8 +16134,8 @@
       <c r="A594" t="s">
         <v>11</v>
       </c>
-      <c r="B594" s="6" t="s">
-        <v>13</v>
+      <c r="B594" s="6">
+        <v>45</v>
       </c>
       <c r="C594" s="1">
         <v>180</v>
@@ -16166,8 +16160,8 @@
       <c r="A595" t="s">
         <v>11</v>
       </c>
-      <c r="B595" s="6" t="s">
-        <v>13</v>
+      <c r="B595" s="6">
+        <v>45</v>
       </c>
       <c r="C595" s="1">
         <v>180</v>
@@ -16192,8 +16186,8 @@
       <c r="A596" t="s">
         <v>11</v>
       </c>
-      <c r="B596" s="6" t="s">
-        <v>13</v>
+      <c r="B596" s="6">
+        <v>45</v>
       </c>
       <c r="C596" s="1">
         <v>180</v>
@@ -16218,8 +16212,8 @@
       <c r="A597" t="s">
         <v>11</v>
       </c>
-      <c r="B597" s="6" t="s">
-        <v>13</v>
+      <c r="B597" s="6">
+        <v>45</v>
       </c>
       <c r="C597" s="1">
         <v>180</v>
@@ -16244,8 +16238,8 @@
       <c r="A598" t="s">
         <v>11</v>
       </c>
-      <c r="B598" s="6" t="s">
-        <v>13</v>
+      <c r="B598" s="6">
+        <v>45</v>
       </c>
       <c r="C598" s="1">
         <v>180</v>
@@ -16270,8 +16264,8 @@
       <c r="A599" t="s">
         <v>11</v>
       </c>
-      <c r="B599" s="6" t="s">
-        <v>13</v>
+      <c r="B599" s="6">
+        <v>45</v>
       </c>
       <c r="C599" s="1">
         <v>180</v>
@@ -16296,8 +16290,8 @@
       <c r="A600" t="s">
         <v>11</v>
       </c>
-      <c r="B600" s="6" t="s">
-        <v>13</v>
+      <c r="B600" s="6">
+        <v>45</v>
       </c>
       <c r="C600" s="1">
         <v>180</v>
@@ -16322,8 +16316,8 @@
       <c r="A601" t="s">
         <v>11</v>
       </c>
-      <c r="B601" s="6" t="s">
-        <v>13</v>
+      <c r="B601" s="6">
+        <v>45</v>
       </c>
       <c r="C601" s="1">
         <v>180</v>
@@ -16348,8 +16342,8 @@
       <c r="A602" t="s">
         <v>11</v>
       </c>
-      <c r="B602" s="6" t="s">
-        <v>13</v>
+      <c r="B602" s="6">
+        <v>45</v>
       </c>
       <c r="C602" s="1">
         <v>180</v>
@@ -16374,8 +16368,8 @@
       <c r="A603" t="s">
         <v>11</v>
       </c>
-      <c r="B603" s="6" t="s">
-        <v>13</v>
+      <c r="B603" s="6">
+        <v>45</v>
       </c>
       <c r="C603" s="1">
         <v>180</v>
@@ -16400,8 +16394,8 @@
       <c r="A604" t="s">
         <v>11</v>
       </c>
-      <c r="B604" s="6" t="s">
-        <v>13</v>
+      <c r="B604" s="6">
+        <v>45</v>
       </c>
       <c r="C604" s="1">
         <v>180</v>
@@ -16426,8 +16420,8 @@
       <c r="A605" t="s">
         <v>11</v>
       </c>
-      <c r="B605" s="6" t="s">
-        <v>13</v>
+      <c r="B605" s="6">
+        <v>45</v>
       </c>
       <c r="C605" s="1">
         <v>180</v>
@@ -16452,8 +16446,8 @@
       <c r="A606" t="s">
         <v>11</v>
       </c>
-      <c r="B606" s="6" t="s">
-        <v>13</v>
+      <c r="B606" s="6">
+        <v>45</v>
       </c>
       <c r="C606" s="1">
         <v>180</v>
@@ -16478,8 +16472,8 @@
       <c r="A607" t="s">
         <v>11</v>
       </c>
-      <c r="B607" s="6" t="s">
-        <v>13</v>
+      <c r="B607" s="6">
+        <v>45</v>
       </c>
       <c r="C607" s="1">
         <v>180</v>
@@ -16504,8 +16498,8 @@
       <c r="A608" t="s">
         <v>11</v>
       </c>
-      <c r="B608" s="6" t="s">
-        <v>13</v>
+      <c r="B608" s="6">
+        <v>45</v>
       </c>
       <c r="C608" s="1">
         <v>180</v>
@@ -16530,8 +16524,8 @@
       <c r="A609" t="s">
         <v>11</v>
       </c>
-      <c r="B609" s="6" t="s">
-        <v>13</v>
+      <c r="B609" s="6">
+        <v>45</v>
       </c>
       <c r="C609" s="1">
         <v>180</v>
@@ -16556,8 +16550,8 @@
       <c r="A610" t="s">
         <v>11</v>
       </c>
-      <c r="B610" s="6" t="s">
-        <v>13</v>
+      <c r="B610" s="6">
+        <v>45</v>
       </c>
       <c r="C610" s="1">
         <v>180</v>
@@ -16582,8 +16576,8 @@
       <c r="A611" t="s">
         <v>11</v>
       </c>
-      <c r="B611" s="6" t="s">
-        <v>13</v>
+      <c r="B611" s="6">
+        <v>45</v>
       </c>
       <c r="C611" s="1">
         <v>180</v>
@@ -16608,8 +16602,8 @@
       <c r="A612" t="s">
         <v>11</v>
       </c>
-      <c r="B612" s="6" t="s">
-        <v>13</v>
+      <c r="B612" s="6">
+        <v>45</v>
       </c>
       <c r="C612" s="1">
         <v>180</v>
@@ -16634,8 +16628,8 @@
       <c r="A613" t="s">
         <v>11</v>
       </c>
-      <c r="B613" s="6" t="s">
-        <v>13</v>
+      <c r="B613" s="6">
+        <v>45</v>
       </c>
       <c r="C613" s="1">
         <v>180</v>
@@ -16660,8 +16654,8 @@
       <c r="A614" t="s">
         <v>11</v>
       </c>
-      <c r="B614" s="6" t="s">
-        <v>13</v>
+      <c r="B614" s="6">
+        <v>45</v>
       </c>
       <c r="C614" s="1">
         <v>180</v>
@@ -16686,8 +16680,8 @@
       <c r="A615" t="s">
         <v>11</v>
       </c>
-      <c r="B615" s="6" t="s">
-        <v>13</v>
+      <c r="B615" s="6">
+        <v>45</v>
       </c>
       <c r="C615" s="1">
         <v>180</v>
@@ -16712,8 +16706,8 @@
       <c r="A616" t="s">
         <v>11</v>
       </c>
-      <c r="B616" s="6" t="s">
-        <v>13</v>
+      <c r="B616" s="6">
+        <v>45</v>
       </c>
       <c r="C616" s="1">
         <v>180</v>
@@ -16738,8 +16732,8 @@
       <c r="A617" t="s">
         <v>11</v>
       </c>
-      <c r="B617" s="6" t="s">
-        <v>13</v>
+      <c r="B617" s="6">
+        <v>45</v>
       </c>
       <c r="C617" s="1">
         <v>180</v>
@@ -16764,8 +16758,8 @@
       <c r="A618" t="s">
         <v>11</v>
       </c>
-      <c r="B618" s="6" t="s">
-        <v>13</v>
+      <c r="B618" s="6">
+        <v>45</v>
       </c>
       <c r="C618" s="1">
         <v>180</v>
@@ -16790,8 +16784,8 @@
       <c r="A619" t="s">
         <v>11</v>
       </c>
-      <c r="B619" s="6" t="s">
-        <v>13</v>
+      <c r="B619" s="6">
+        <v>45</v>
       </c>
       <c r="C619" s="1">
         <v>180</v>
@@ -16816,8 +16810,8 @@
       <c r="A620" t="s">
         <v>11</v>
       </c>
-      <c r="B620" s="6" t="s">
-        <v>13</v>
+      <c r="B620" s="6">
+        <v>45</v>
       </c>
       <c r="C620" s="1">
         <v>180</v>
@@ -16842,8 +16836,8 @@
       <c r="A621" t="s">
         <v>11</v>
       </c>
-      <c r="B621" s="6" t="s">
-        <v>13</v>
+      <c r="B621" s="6">
+        <v>45</v>
       </c>
       <c r="C621" s="1">
         <v>180</v>
@@ -16868,8 +16862,8 @@
       <c r="A622" t="s">
         <v>11</v>
       </c>
-      <c r="B622" s="6" t="s">
-        <v>13</v>
+      <c r="B622" s="6">
+        <v>45</v>
       </c>
       <c r="C622" s="1">
         <v>180</v>
@@ -16894,8 +16888,8 @@
       <c r="A623" t="s">
         <v>11</v>
       </c>
-      <c r="B623" s="6" t="s">
-        <v>13</v>
+      <c r="B623" s="6">
+        <v>45</v>
       </c>
       <c r="C623" s="1">
         <v>180</v>
@@ -16920,8 +16914,8 @@
       <c r="A624" t="s">
         <v>11</v>
       </c>
-      <c r="B624" s="6" t="s">
-        <v>13</v>
+      <c r="B624" s="6">
+        <v>45</v>
       </c>
       <c r="C624" s="1">
         <v>180</v>
@@ -16946,8 +16940,8 @@
       <c r="A625" t="s">
         <v>11</v>
       </c>
-      <c r="B625" s="6" t="s">
-        <v>13</v>
+      <c r="B625" s="6">
+        <v>45</v>
       </c>
       <c r="C625" s="1">
         <v>180</v>
@@ -16975,22 +16969,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="79361c6c-fea3-4edf-b4fa-5821e39e9bfe">N4XJ6CXEYHH6-631025465-499114</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="79361c6c-fea3-4edf-b4fa-5821e39e9bfe">
-      <Url>https://artedrone.sharepoint.com/sites/SharepointArtedrone/_layouts/15/DocIdRedir.aspx?ID=N4XJ6CXEYHH6-631025465-499114</Url>
-      <Description>N4XJ6CXEYHH6-631025465-499114</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="79361c6c-fea3-4edf-b4fa-5821e39e9bfe" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7f867db0-d780-48fe-a112-754d1799c19e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005980ED226863A74FA2F9CA9139548579" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0242ed82f3266fd060e887ae3e26cb2b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="79361c6c-fea3-4edf-b4fa-5821e39e9bfe" xmlns:ns3="7f867db0-d780-48fe-a112-754d1799c19e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="22c66529a84d53b789930f0e5aa4c2cf" ns2:_="" ns3:_="">
     <xsd:import namespace="79361c6c-fea3-4edf-b4fa-5821e39e9bfe"/>
@@ -17256,7 +17234,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="79361c6c-fea3-4edf-b4fa-5821e39e9bfe">N4XJ6CXEYHH6-631025465-499114</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="79361c6c-fea3-4edf-b4fa-5821e39e9bfe">
+      <Url>https://artedrone.sharepoint.com/sites/SharepointArtedrone/_layouts/15/DocIdRedir.aspx?ID=N4XJ6CXEYHH6-631025465-499114</Url>
+      <Description>N4XJ6CXEYHH6-631025465-499114</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="79361c6c-fea3-4edf-b4fa-5821e39e9bfe" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7f867db0-d780-48fe-a112-754d1799c19e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -17306,16 +17309,26 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2FBC8CC-9B2D-49AA-8AEB-140267ACABF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="79361c6c-fea3-4edf-b4fa-5821e39e9bfe"/>
+    <ds:schemaRef ds:uri="7f867db0-d780-48fe-a112-754d1799c19e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F56340EC-2E80-4BEE-AA2C-1B622E4607C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -17326,22 +17339,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2FBC8CC-9B2D-49AA-8AEB-140267ACABF3}"/>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8128331-F855-46C9-83E5-1081B8762C26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7855C3A7-43F2-4E39-B3EE-8D5AE289D659}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8128331-F855-46C9-83E5-1081B8762C26}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>